--- a/软维组工作汇报/表格/PPT模版.xlsx
+++ b/软维组工作汇报/表格/PPT模版.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
     <sheet name="RA使用率" sheetId="1" r:id="rId2"/>
     <sheet name="执行时间图" sheetId="3" r:id="rId3"/>
     <sheet name="报错信息" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>8:00之前完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否0800之前完成</t>
   </si>
   <si>
@@ -71,13 +68,6 @@
   </si>
   <si>
     <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否5.5小时之内完成</t>
-  </si>
-  <si>
-    <t>数据库对象不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,6 +86,55 @@
     <t>超出6小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否6小时之内完成</t>
+  </si>
+  <si>
+    <t>报错信息</t>
+  </si>
+  <si>
+    <t>是否人工干预（是：1、否：0）</t>
+  </si>
+  <si>
+    <t>是否影响日结执行时间（是：1、否：0）</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>ORA-01652: unable to extend temp segment by 12800 in tablespace RA_TEMP</t>
+  </si>
+  <si>
+    <t>W_PRODUCT_D_RTL_TMP表执行计划错误，分析后，表记录为0，但实际上有100万行。</t>
+  </si>
+  <si>
+    <t>ORA-12170: TNS:Connect timeout occurred</t>
+  </si>
+  <si>
+    <t>RA连接ZFL的dblink出现问题，TNS超时</t>
+  </si>
+  <si>
+    <t>RA临时表空间不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工干预</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响日结</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +144,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\/m\/d"/>
     <numFmt numFmtId="177" formatCode="yyyy\/m\/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +182,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,12 +198,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -166,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +265,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -251,10 +362,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,7 +394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -353,10 +464,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +496,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -395,9 +506,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -635,6 +744,63 @@
                 <c:pt idx="70" formatCode="yyyy/m/d">
                   <c:v>42440</c:v>
                 </c:pt>
+                <c:pt idx="71" formatCode="yyyy/m/d">
+                  <c:v>42441</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="yyyy/m/d">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="yyyy/m/d">
+                  <c:v>42443</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="yyyy/m/d">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="yyyy/m/d">
+                  <c:v>42445</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="yyyy/m/d">
+                  <c:v>42446</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="yyyy/m/d">
+                  <c:v>42447</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="yyyy/m/d">
+                  <c:v>42448</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="yyyy/m/d">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="yyyy/m/d">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="yyyy/m/d">
+                  <c:v>42451</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="yyyy/m/d">
+                  <c:v>42452</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="yyyy/m/d">
+                  <c:v>42453</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="yyyy/m/d">
+                  <c:v>42454</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="yyyy/m/d">
+                  <c:v>42455</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="yyyy/m/d">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="yyyy/m/d">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="yyyy/m/d">
+                  <c:v>42458</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="yyyy/m/d">
+                  <c:v>42459</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -857,29 +1023,86 @@
                 <c:pt idx="70">
                   <c:v>0.26111111111111113</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.18706018518518519</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20850694444444443</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.1884837962962963</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17950231481481482</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.20363425925925926</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19010416666666666</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.24299768518518516</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.35136574074074073</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.21229166666666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.20296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.17277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23633101851851854</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39297453703703705</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.43106481481481485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.28990740740740745</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.22045138888888891</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.18868055555555555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19527777777777777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82333696"/>
-        <c:axId val="82335232"/>
+        <c:axId val="84183680"/>
+        <c:axId val="85655936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82333696"/>
+        <c:axId val="84183680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82335232"/>
+        <c:crossAx val="85655936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82335232"/>
+        <c:axId val="85655936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,20 +1110,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82333696"/>
+        <c:crossAx val="84183680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -930,7 +1152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>次数</c:v>
+                  <c:v>报错次数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -945,7 +1167,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>数据库对象不存在</c:v>
+                  <c:v>RA临时表空间不够</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Java内存溢出</c:v>
@@ -963,13 +1185,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1210,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1416,9 +1638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1452,13 +1674,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -3524,167 +3746,585 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>42441</v>
+      </c>
+      <c r="C73" s="7">
+        <v>42441.09814814815</v>
+      </c>
+      <c r="D73" s="7">
+        <v>42441.285208333335</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.28520833333333334</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.18706018518518519</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>42442</v>
+      </c>
+      <c r="C74" s="7">
+        <v>42442.071608796294</v>
+      </c>
+      <c r="D74" s="7">
+        <v>42442.280115740738</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.28011574074074075</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.20850694444444443</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>42443</v>
+      </c>
+      <c r="C75" s="7">
+        <v>42443.068136574075</v>
+      </c>
+      <c r="D75" s="7">
+        <v>42443.256620370368</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.25662037037037039</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.1884837962962963</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>42444</v>
+      </c>
+      <c r="C76" s="7">
+        <v>42444.056041666663</v>
+      </c>
+      <c r="D76" s="7">
+        <v>42444.233564814815</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.23356481481481484</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.17752314814814815</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>42445</v>
+      </c>
+      <c r="C77" s="7">
+        <v>42445.041689814818</v>
+      </c>
+      <c r="D77" s="7">
+        <v>42445.221192129633</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.22119212962962964</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.17950231481481482</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>42446</v>
+      </c>
+      <c r="C78" s="7">
+        <v>42446.033275462964</v>
+      </c>
+      <c r="D78" s="7">
+        <v>42446.236909722225</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.2369097222222222</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.20363425925925926</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>42447</v>
+      </c>
+      <c r="C79" s="7">
+        <v>42447.042280092595</v>
+      </c>
+      <c r="D79" s="7">
+        <v>42447.23238425926</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.23238425925925923</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.19010416666666666</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="5"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="5"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="5"/>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="5"/>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="5"/>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="5"/>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>42448</v>
+      </c>
+      <c r="C80" s="7">
+        <v>42448.050821759258</v>
+      </c>
+      <c r="D80" s="7">
+        <v>42448.293819444443</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.29381944444444447</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.24299768518518516</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>42449</v>
+      </c>
+      <c r="C81" s="7">
+        <v>42449.09070601852</v>
+      </c>
+      <c r="D81" s="7">
+        <v>42449.442071759258</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.44207175925925929</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.35136574074074073</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6">
+        <v>42450</v>
+      </c>
+      <c r="C82" s="7">
+        <v>42450.044374999998</v>
+      </c>
+      <c r="D82" s="7">
+        <v>42450.256666666668</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.25666666666666665</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.21229166666666666</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>42451</v>
+      </c>
+      <c r="C83" s="7">
+        <v>42451.054583333331</v>
+      </c>
+      <c r="D83" s="7">
+        <v>42451.2575462963</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.25754629629629627</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.20296296296296298</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>42452</v>
+      </c>
+      <c r="C84" s="7">
+        <v>42452.05300925926</v>
+      </c>
+      <c r="D84" s="7">
+        <v>42452.225787037038</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.22578703703703704</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.17277777777777778</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6">
+        <v>42453</v>
+      </c>
+      <c r="C85" s="7">
+        <v>42453.072824074072</v>
+      </c>
+      <c r="D85" s="7">
+        <v>42453.309155092589</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.30915509259259261</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.23633101851851854</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>42454</v>
+      </c>
+      <c r="C86" s="7">
+        <v>42454.048252314817</v>
+      </c>
+      <c r="D86" s="7">
+        <v>42454.44122685185</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.44122685185185184</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.39297453703703705</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>42455</v>
+      </c>
+      <c r="C87" s="7">
+        <v>42455.036412037036</v>
+      </c>
+      <c r="D87" s="7">
+        <v>42455.467476851853</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.46747685185185189</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.43106481481481485</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>42456</v>
+      </c>
+      <c r="C88" s="7">
+        <v>42456.035925925928</v>
+      </c>
+      <c r="D88" s="7">
+        <v>42456.325833333336</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.32583333333333336</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.28990740740740745</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6">
+        <v>42457</v>
+      </c>
+      <c r="C89" s="7">
+        <v>42457.035613425927</v>
+      </c>
+      <c r="D89" s="7">
+        <v>42457.256064814814</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.2560648148148148</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.22045138888888891</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6">
+        <v>42458</v>
+      </c>
+      <c r="C90" s="7">
+        <v>42458.048784722225</v>
+      </c>
+      <c r="D90" s="7">
+        <v>42458.23746527778</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.23746527777777779</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.18868055555555555</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6">
+        <v>42459</v>
+      </c>
+      <c r="C91" s="7">
+        <v>42459.050312500003</v>
+      </c>
+      <c r="D91" s="7">
+        <v>42459.24559027778</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.24559027777777778</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.19527777777777777</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="1:9">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="1:9">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="1:9">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="1:9">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -6096,7 +6736,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6110,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6119,14 +6759,14 @@
       </c>
       <c r="B2">
         <f>SUM(数据!F:F)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <f>SUM(数据!H:H)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6135,14 +6775,14 @@
       </c>
       <c r="B3">
         <f>COUNT(数据!F:F)-B2</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <f>COUNT(数据!H:H)-J2</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6151,14 +6791,14 @@
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6186,44 +6826,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="L3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6231,4 +6887,544 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="93.75" customHeight="1">
+      <c r="A4" s="11">
+        <v>42458</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11">
+        <v>42457</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="54.75" thickBot="1">
+      <c r="A8" s="10">
+        <v>42456</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="54.75" thickBot="1">
+      <c r="A9" s="10">
+        <v>42455</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54.75" thickBot="1">
+      <c r="A10" s="10">
+        <v>42454</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>42453</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11">
+        <v>42452</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11">
+        <v>42451</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A17" s="10">
+        <v>42450</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="93.75" customHeight="1">
+      <c r="A18" s="11">
+        <v>42449</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="168" customHeight="1">
+      <c r="A20" s="11">
+        <v>42448</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11">
+        <v>42447</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11">
+        <v>42446</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11">
+        <v>42445</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11">
+        <v>42444</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11">
+        <v>42443</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11">
+        <v>42442</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11">
+        <v>42441</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="93.75" customHeight="1">
+      <c r="A36" s="11">
+        <v>42440</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11">
+        <v>42439</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/软维组工作汇报/表格/PPT模版.xlsx
+++ b/软维组工作汇报/表格/PPT模版.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="151">
   <si>
     <t>8:00之前完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
     <t>ENDED_OK-ended normally</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,25 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java内存溢出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6小时之内完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出6小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否6小时之内完成</t>
-  </si>
-  <si>
     <t>报错信息</t>
   </si>
   <si>
@@ -118,10 +96,6 @@
   </si>
   <si>
     <t>RA连接ZFL的dblink出现问题，TNS超时</t>
-  </si>
-  <si>
-    <t>RA临时表空间不够</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>报错次数</t>
@@ -132,7 +106,385 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响日结</t>
+    <t/>
+  </si>
+  <si>
+    <t>是否5.5小时之内完成</t>
+  </si>
+  <si>
+    <t>10:12:15</t>
+  </si>
+  <si>
+    <t>13:41:07</t>
+  </si>
+  <si>
+    <t>07:13:15</t>
+  </si>
+  <si>
+    <t>07:00:40</t>
+  </si>
+  <si>
+    <t>07:43:17</t>
+  </si>
+  <si>
+    <t>07:26:47</t>
+  </si>
+  <si>
+    <t>16:52:26</t>
+  </si>
+  <si>
+    <t>16:56:24</t>
+  </si>
+  <si>
+    <t>06:57:35</t>
+  </si>
+  <si>
+    <t>07:46:21</t>
+  </si>
+  <si>
+    <t>07:08:55</t>
+  </si>
+  <si>
+    <t>06:21:49</t>
+  </si>
+  <si>
+    <t>06:46:42</t>
+  </si>
+  <si>
+    <t>05:27:46</t>
+  </si>
+  <si>
+    <t>07:13:01</t>
+  </si>
+  <si>
+    <t>07:05:19</t>
+  </si>
+  <si>
+    <t>08:17:27</t>
+  </si>
+  <si>
+    <t>07:41:27</t>
+  </si>
+  <si>
+    <t>07:30:22</t>
+  </si>
+  <si>
+    <t>06:37:22</t>
+  </si>
+  <si>
+    <t>06:21:08</t>
+  </si>
+  <si>
+    <t>08:25:09</t>
+  </si>
+  <si>
+    <t>15:30:34</t>
+  </si>
+  <si>
+    <t>12:40:49</t>
+  </si>
+  <si>
+    <t>07:53:27</t>
+  </si>
+  <si>
+    <t>08:08:01</t>
+  </si>
+  <si>
+    <t>07:29:31</t>
+  </si>
+  <si>
+    <t>08:12:27</t>
+  </si>
+  <si>
+    <t>07:49:58</t>
+  </si>
+  <si>
+    <t>07:51:21</t>
+  </si>
+  <si>
+    <t>08:41:18</t>
+  </si>
+  <si>
+    <t>14:15:14</t>
+  </si>
+  <si>
+    <t>08:37:23</t>
+  </si>
+  <si>
+    <t>12:06:31</t>
+  </si>
+  <si>
+    <t>08:42:39</t>
+  </si>
+  <si>
+    <t>09:07:44</t>
+  </si>
+  <si>
+    <t>09:36:40</t>
+  </si>
+  <si>
+    <t>08:12:03</t>
+  </si>
+  <si>
+    <t>12:44:07</t>
+  </si>
+  <si>
+    <t>04:46:16</t>
+  </si>
+  <si>
+    <t>06:14:28</t>
+  </si>
+  <si>
+    <t>05:56:24</t>
+  </si>
+  <si>
+    <t>06:08:52</t>
+  </si>
+  <si>
+    <t>06:11:48</t>
+  </si>
+  <si>
+    <t>06:28:35</t>
+  </si>
+  <si>
+    <t>07:04:00</t>
+  </si>
+  <si>
+    <t>06:47:19</t>
+  </si>
+  <si>
+    <t>06:53:42</t>
+  </si>
+  <si>
+    <t>06:59:14</t>
+  </si>
+  <si>
+    <t>07:00:28</t>
+  </si>
+  <si>
+    <t>10:15:15</t>
+  </si>
+  <si>
+    <t>10:29:09</t>
+  </si>
+  <si>
+    <t>06:46:28</t>
+  </si>
+  <si>
+    <t>06:38:17</t>
+  </si>
+  <si>
+    <t>07:43:16</t>
+  </si>
+  <si>
+    <t>07:03:03</t>
+  </si>
+  <si>
+    <t>15:37:48</t>
+  </si>
+  <si>
+    <t>07:32:32</t>
+  </si>
+  <si>
+    <t>07:30:36</t>
+  </si>
+  <si>
+    <t>07:02:36</t>
+  </si>
+  <si>
+    <t>07:08:45</t>
+  </si>
+  <si>
+    <t>08:04:42</t>
+  </si>
+  <si>
+    <t>10:48:09</t>
+  </si>
+  <si>
+    <t>06:44:03</t>
+  </si>
+  <si>
+    <t>06:32:27</t>
+  </si>
+  <si>
+    <t>05:42:55</t>
+  </si>
+  <si>
+    <t>18:27:59</t>
+  </si>
+  <si>
+    <t>06:52:04</t>
+  </si>
+  <si>
+    <t>06:18:50</t>
+  </si>
+  <si>
+    <t>10:16:20</t>
+  </si>
+  <si>
+    <t>06:59:16</t>
+  </si>
+  <si>
+    <t>07:47:25</t>
+  </si>
+  <si>
+    <t>06:50:42</t>
+  </si>
+  <si>
+    <t>06:43:22</t>
+  </si>
+  <si>
+    <t>06:09:32</t>
+  </si>
+  <si>
+    <t>05:36:20</t>
+  </si>
+  <si>
+    <t>05:18:31</t>
+  </si>
+  <si>
+    <t>05:41:09</t>
+  </si>
+  <si>
+    <t>05:34:38</t>
+  </si>
+  <si>
+    <t>07:03:06</t>
+  </si>
+  <si>
+    <t>10:36:35</t>
+  </si>
+  <si>
+    <t>06:09:36</t>
+  </si>
+  <si>
+    <t>06:10:52</t>
+  </si>
+  <si>
+    <t>05:25:08</t>
+  </si>
+  <si>
+    <t>07:25:11</t>
+  </si>
+  <si>
+    <t>10:35:22</t>
+  </si>
+  <si>
+    <t>11:13:10</t>
+  </si>
+  <si>
+    <t>07:49:12</t>
+  </si>
+  <si>
+    <t>06:08:44</t>
+  </si>
+  <si>
+    <t>05:41:57</t>
+  </si>
+  <si>
+    <t>05:53:39</t>
+  </si>
+  <si>
+    <t>06:29:46</t>
+  </si>
+  <si>
+    <t>06:24:43</t>
+  </si>
+  <si>
+    <t>11:36:46</t>
+  </si>
+  <si>
+    <t>05:51:55</t>
+  </si>
+  <si>
+    <t>05:17:19</t>
+  </si>
+  <si>
+    <t>05:54:43</t>
+  </si>
+  <si>
+    <t>06:39:16</t>
+  </si>
+  <si>
+    <t>05:47:19</t>
+  </si>
+  <si>
+    <t>05:40:31</t>
+  </si>
+  <si>
+    <t>07:55:56</t>
+  </si>
+  <si>
+    <t>05:38:00</t>
+  </si>
+  <si>
+    <t>06:01:05</t>
+  </si>
+  <si>
+    <t>05:49:52</t>
+  </si>
+  <si>
+    <t>06:53:05</t>
+  </si>
+  <si>
+    <t>04:56:13</t>
+  </si>
+  <si>
+    <t>06:09:35</t>
+  </si>
+  <si>
+    <t>05:31:28</t>
+  </si>
+  <si>
+    <t>04:55:51</t>
+  </si>
+  <si>
+    <t>05:04:28</t>
+  </si>
+  <si>
+    <t>05:49:41</t>
+  </si>
+  <si>
+    <t>05:04:09</t>
+  </si>
+  <si>
+    <t>05:07:46</t>
+  </si>
+  <si>
+    <t>06:27:24</t>
+  </si>
+  <si>
+    <t>06:47:50</t>
+  </si>
+  <si>
+    <t>05:55:18</t>
+  </si>
+  <si>
+    <t>5.5小时之内完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出5.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-08103: object no longer exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-12170: TNS:Connect timeout occurred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-01652: unable to extend temp segment by 12800 in tablespace RA_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.OutOfMemoryError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常结束</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -302,9 +654,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -362,10 +712,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,7 +728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -394,7 +743,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -404,9 +753,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -449,10 +796,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6小时之内完成</c:v>
+                  <c:v>5.5小时之内完成</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>超出6小时</c:v>
+                  <c:v>超出5.5小时</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -464,10 +811,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +827,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -496,7 +842,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -735,71 +1081,149 @@
                 <c:pt idx="67">
                   <c:v>42437</c:v>
                 </c:pt>
-                <c:pt idx="68" formatCode="yyyy/m/d">
+                <c:pt idx="68">
                   <c:v>42438</c:v>
                 </c:pt>
-                <c:pt idx="69" formatCode="yyyy/m/d">
+                <c:pt idx="69">
                   <c:v>42439</c:v>
                 </c:pt>
-                <c:pt idx="70" formatCode="yyyy/m/d">
+                <c:pt idx="70">
                   <c:v>42440</c:v>
                 </c:pt>
-                <c:pt idx="71" formatCode="yyyy/m/d">
+                <c:pt idx="71">
                   <c:v>42441</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="yyyy/m/d">
+                <c:pt idx="72">
                   <c:v>42442</c:v>
                 </c:pt>
-                <c:pt idx="73" formatCode="yyyy/m/d">
+                <c:pt idx="73">
                   <c:v>42443</c:v>
                 </c:pt>
-                <c:pt idx="74" formatCode="yyyy/m/d">
+                <c:pt idx="74">
                   <c:v>42444</c:v>
                 </c:pt>
-                <c:pt idx="75" formatCode="yyyy/m/d">
+                <c:pt idx="75">
                   <c:v>42445</c:v>
                 </c:pt>
-                <c:pt idx="76" formatCode="yyyy/m/d">
+                <c:pt idx="76">
                   <c:v>42446</c:v>
                 </c:pt>
-                <c:pt idx="77" formatCode="yyyy/m/d">
+                <c:pt idx="77">
                   <c:v>42447</c:v>
                 </c:pt>
-                <c:pt idx="78" formatCode="yyyy/m/d">
+                <c:pt idx="78">
                   <c:v>42448</c:v>
                 </c:pt>
-                <c:pt idx="79" formatCode="yyyy/m/d">
+                <c:pt idx="79">
                   <c:v>42449</c:v>
                 </c:pt>
-                <c:pt idx="80" formatCode="yyyy/m/d">
+                <c:pt idx="80">
                   <c:v>42450</c:v>
                 </c:pt>
-                <c:pt idx="81" formatCode="yyyy/m/d">
+                <c:pt idx="81">
                   <c:v>42451</c:v>
                 </c:pt>
-                <c:pt idx="82" formatCode="yyyy/m/d">
+                <c:pt idx="82">
                   <c:v>42452</c:v>
                 </c:pt>
-                <c:pt idx="83" formatCode="yyyy/m/d">
+                <c:pt idx="83">
                   <c:v>42453</c:v>
                 </c:pt>
-                <c:pt idx="84" formatCode="yyyy/m/d">
+                <c:pt idx="84">
                   <c:v>42454</c:v>
                 </c:pt>
-                <c:pt idx="85" formatCode="yyyy/m/d">
+                <c:pt idx="85">
                   <c:v>42455</c:v>
                 </c:pt>
-                <c:pt idx="86" formatCode="yyyy/m/d">
+                <c:pt idx="86">
                   <c:v>42456</c:v>
                 </c:pt>
-                <c:pt idx="87" formatCode="yyyy/m/d">
+                <c:pt idx="87">
                   <c:v>42457</c:v>
                 </c:pt>
-                <c:pt idx="88" formatCode="yyyy/m/d">
+                <c:pt idx="88">
                   <c:v>42458</c:v>
                 </c:pt>
-                <c:pt idx="89" formatCode="yyyy/m/d">
+                <c:pt idx="89">
                   <c:v>42459</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42462</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42464</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42465</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42466</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42467</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42468</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42469</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42471</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42472</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42473</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42474</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42476</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42478</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42480</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42481</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42482</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42483</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,29 +1504,107 @@
                 <c:pt idx="89">
                   <c:v>0.19527777777777777</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.18995370370370371</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19616898148148146</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.3366319444444445</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1846875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16980324074074074</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19019675925925927</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.20440972222222223</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.17874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.17549768518518519</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.27126157407407409</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.18109953703703704</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.18581018518518519</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.20196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.18140046296296297</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.17474537037037038</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.17005787037037037</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.18644675925925924</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.19059027777777779</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.15707175925925926</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1723611111111111</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.16898148148148148</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.17217592592592593</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.17152777777777775</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.23113425925925926</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.22582175925925926</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.19271990740740741</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84183680"/>
-        <c:axId val="85655936"/>
+        <c:axId val="83266560"/>
+        <c:axId val="83292928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84183680"/>
+        <c:axId val="83266560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85655936"/>
+        <c:crossAx val="83292928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85655936"/>
+        <c:axId val="83292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1612,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84183680"/>
+        <c:crossAx val="83266560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,7 +1624,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1163,35 +1665,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>报错信息!$A$2:$A$4</c:f>
+              <c:f>报错信息!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>RA临时表空间不够</c:v>
+                  <c:v>ORA-08103: object no longer exists</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Java内存溢出</c:v>
+                  <c:v>ORA-12170: TNS:Connect timeout occurred</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>其他</c:v>
+                  <c:v>ORA-01652: unable to extend temp segment by 12800 in tablespace RA_TEMP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exception in thread "main" java.lang.OutOfMemoryError</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>报错信息!$B$2:$B$4</c:f>
+              <c:f>报错信息!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1718,89 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>报错信息!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>天数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>报错信息!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>人工干预</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>正常结束</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>报错信息!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1320,16 +1910,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5114925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1343,6 +1933,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1639,8 +2259,8 @@
   <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1659,7 +2279,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1674,13 +2294,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1697,10 +2317,10 @@
         <v>42370.126875000002</v>
       </c>
       <c r="D2" s="4">
-        <v>42370.425173611111</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.42517361111111113</v>
+        <v>42370.425173611096</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1723,13 +2343,13 @@
         <v>42371</v>
       </c>
       <c r="C3" s="4">
-        <v>42371.173020833332</v>
+        <v>42371.173020833303</v>
       </c>
       <c r="D3" s="4">
-        <v>42371.570219907408</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.57021990740740736</v>
+        <v>42371.5702199074</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1752,13 +2372,13 @@
         <v>42372</v>
       </c>
       <c r="C4" s="4">
-        <v>42372.070775462962</v>
+        <v>42372.070775462998</v>
       </c>
       <c r="D4" s="4">
-        <v>42372.300868055558</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.30086805555555557</v>
+        <v>42372.300868055601</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1767,7 +2387,7 @@
         <v>0.2300925925925926</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
@@ -1781,13 +2401,13 @@
         <v>42373</v>
       </c>
       <c r="C5" s="4">
-        <v>42373.069398148145</v>
+        <v>42373.069398148102</v>
       </c>
       <c r="D5" s="4">
-        <v>42373.292129629626</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.29212962962962963</v>
+        <v>42373.292129629597</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1810,13 +2430,13 @@
         <v>42374</v>
       </c>
       <c r="C6" s="4">
-        <v>42374.087511574071</v>
+        <v>42374.0875115741</v>
       </c>
       <c r="D6" s="4">
-        <v>42374.32172453704</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.32172453703703702</v>
+        <v>42374.321724537003</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1825,7 +2445,7 @@
         <v>0.23421296296296298</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -1842,10 +2462,10 @@
         <v>42375.068171296298</v>
       </c>
       <c r="D7" s="4">
-        <v>42375.310266203705</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.31026620370370367</v>
+        <v>42375.310266203698</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1854,7 +2474,7 @@
         <v>0.24209490740740738</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -1868,13 +2488,13 @@
         <v>42376</v>
       </c>
       <c r="C8" s="4">
-        <v>42376.182557870372</v>
+        <v>42376.182557870401</v>
       </c>
       <c r="D8" s="4">
         <v>42376.7030787037</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.70307870370370373</v>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1897,13 +2517,13 @@
         <v>42377</v>
       </c>
       <c r="C9" s="4">
-        <v>42377.09107638889</v>
+        <v>42377.091076388897</v>
       </c>
       <c r="D9" s="4">
-        <v>42377.705833333333</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.70583333333333342</v>
+        <v>42377.705833333297</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1926,13 +2546,13 @@
         <v>42378</v>
       </c>
       <c r="C10" s="4">
-        <v>42378.058229166665</v>
+        <v>42378.058229166701</v>
       </c>
       <c r="D10" s="4">
-        <v>42378.289988425924</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.28998842592592594</v>
+        <v>42378.289988425902</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1941,7 +2561,7 @@
         <v>0.23175925925925925</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -1955,13 +2575,13 @@
         <v>42379</v>
       </c>
       <c r="C11" s="4">
-        <v>42379.069039351853</v>
+        <v>42379.069039351903</v>
       </c>
       <c r="D11" s="4">
-        <v>42379.323854166665</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.32385416666666667</v>
+        <v>42379.323854166701</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1987,10 +2607,10 @@
         <v>42380.0780787037</v>
       </c>
       <c r="D12" s="4">
-        <v>42380.297858796293</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.2978587962962963</v>
+        <v>42380.297858796301</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2013,13 +2633,13 @@
         <v>42381</v>
       </c>
       <c r="C13" s="4">
-        <v>42381.056990740741</v>
+        <v>42381.056990740697</v>
       </c>
       <c r="D13" s="4">
-        <v>42381.265150462961</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.26515046296296296</v>
+        <v>42381.265150462998</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2042,13 +2662,13 @@
         <v>42382</v>
       </c>
       <c r="C14" s="4">
-        <v>42382.054814814815</v>
+        <v>42382.054814814801</v>
       </c>
       <c r="D14" s="4">
-        <v>42382.282430555555</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.28243055555555557</v>
+        <v>42382.282430555599</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -2071,13 +2691,13 @@
         <v>42383</v>
       </c>
       <c r="C15" s="4">
-        <v>42383.072777777779</v>
+        <v>42383.072777777801</v>
       </c>
       <c r="D15" s="4">
-        <v>42383.300706018519</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.30070601851851853</v>
+        <v>42383.300706018497</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2100,13 +2720,13 @@
         <v>42384</v>
       </c>
       <c r="C16" s="4">
-        <v>42384.069293981483</v>
+        <v>42384.069293981498</v>
       </c>
       <c r="D16" s="4">
         <v>42384.295358796298</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.2953587962962963</v>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -2129,13 +2749,13 @@
         <v>42385</v>
       </c>
       <c r="C17" s="4">
-        <v>42385.106504629628</v>
+        <v>42385.106504629599</v>
       </c>
       <c r="D17" s="4">
-        <v>42385.345451388886</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.34545138888888888</v>
+        <v>42385.345451388901</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2144,7 +2764,7 @@
         <v>0.23894675925925926</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>9</v>
@@ -2158,13 +2778,13 @@
         <v>42386</v>
       </c>
       <c r="C18" s="4">
-        <v>42386.098067129627</v>
+        <v>42386.098067129598</v>
       </c>
       <c r="D18" s="4">
-        <v>42386.320451388892</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.32045138888888891</v>
+        <v>42386.3204513889</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2187,13 +2807,13 @@
         <v>42387</v>
       </c>
       <c r="C19" s="4">
-        <v>42387.098101851851</v>
+        <v>42387.098101851901</v>
       </c>
       <c r="D19" s="4">
-        <v>42387.312754629631</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.31275462962962963</v>
+        <v>42387.312754629602</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2216,13 +2836,13 @@
         <v>42388</v>
       </c>
       <c r="C20" s="4">
-        <v>42388.046759259261</v>
+        <v>42388.046759259298</v>
       </c>
       <c r="D20" s="4">
-        <v>42388.275949074072</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.27594907407407404</v>
+        <v>42388.275949074101</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2231,7 +2851,7 @@
         <v>0.22918981481481482</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>9</v>
@@ -2245,13 +2865,13 @@
         <v>42389</v>
       </c>
       <c r="C21" s="4">
-        <v>42389.045185185183</v>
+        <v>42389.045185185198</v>
       </c>
       <c r="D21" s="4">
-        <v>42389.264675925922</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.26467592592592593</v>
+        <v>42389.264675925901</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2274,13 +2894,13 @@
         <v>42390</v>
       </c>
       <c r="C22" s="4">
-        <v>42390.13082175926</v>
+        <v>42390.130821759303</v>
       </c>
       <c r="D22" s="4">
-        <v>42390.350798611114</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.35079861111111116</v>
+        <v>42390.3507986111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2303,13 +2923,13 @@
         <v>42391</v>
       </c>
       <c r="C23" s="4">
-        <v>42391.281319444446</v>
+        <v>42391.281319444402</v>
       </c>
       <c r="D23" s="4">
-        <v>42391.646226851852</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.6462268518518518</v>
+        <v>42391.646226851903</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2332,13 +2952,13 @@
         <v>42392</v>
       </c>
       <c r="C24" s="4">
-        <v>42392.062696759262</v>
+        <v>42392.062696759298</v>
       </c>
       <c r="D24" s="4">
-        <v>42392.528344907405</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.52834490740740747</v>
+        <v>42392.528344907398</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2361,13 +2981,13 @@
         <v>42393</v>
       </c>
       <c r="C25" s="4">
-        <v>42393.059247685182</v>
+        <v>42393.059247685203</v>
       </c>
       <c r="D25" s="4">
-        <v>42393.328784722224</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.32878472222222221</v>
+        <v>42393.328784722202</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2390,13 +3010,13 @@
         <v>42394</v>
       </c>
       <c r="C26" s="4">
-        <v>42394.075381944444</v>
+        <v>42394.0753819444</v>
       </c>
       <c r="D26" s="4">
-        <v>42394.338900462964</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.338900462962963</v>
+        <v>42394.338900463001</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -2419,13 +3039,13 @@
         <v>42395</v>
       </c>
       <c r="C27" s="4">
-        <v>42395.063888888886</v>
+        <v>42395.063888888901</v>
       </c>
       <c r="D27" s="4">
-        <v>42395.312164351853</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.31216435185185182</v>
+        <v>42395.312164351897</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -2434,7 +3054,7 @@
         <v>0.24827546296296296</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>9</v>
@@ -2448,13 +3068,13 @@
         <v>42396</v>
       </c>
       <c r="C28" s="4">
-        <v>42396.082743055558</v>
+        <v>42396.082743055602</v>
       </c>
       <c r="D28" s="4">
-        <v>42396.341979166667</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.34197916666666667</v>
+        <v>42396.341979166697</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -2477,13 +3097,13 @@
         <v>42397</v>
       </c>
       <c r="C29" s="4">
-        <v>42397.057604166665</v>
+        <v>42397.057604166701</v>
       </c>
       <c r="D29" s="4">
-        <v>42397.326365740744</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.32636574074074076</v>
+        <v>42397.326365740701</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -2506,13 +3126,13 @@
         <v>42398</v>
       </c>
       <c r="C30" s="4">
-        <v>42398.053148148145</v>
+        <v>42398.053148148101</v>
       </c>
       <c r="D30" s="4">
-        <v>42398.327326388891</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.32732638888888888</v>
+        <v>42398.327326388899</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -2535,13 +3155,13 @@
         <v>42399</v>
       </c>
       <c r="C31" s="4">
-        <v>42399.110972222225</v>
+        <v>42399.110972222203</v>
       </c>
       <c r="D31" s="4">
-        <v>42399.362013888887</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.36201388888888886</v>
+        <v>42399.362013888902</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -2564,13 +3184,13 @@
         <v>42400</v>
       </c>
       <c r="C32" s="4">
-        <v>42400.084444444445</v>
+        <v>42400.084444444401</v>
       </c>
       <c r="D32" s="4">
-        <v>42400.593912037039</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.5939120370370371</v>
+        <v>42400.593912037002</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2593,13 +3213,13 @@
         <v>42401</v>
       </c>
       <c r="C33" s="4">
-        <v>42401.131539351853</v>
+        <v>42401.131539351903</v>
       </c>
       <c r="D33" s="4">
-        <v>42401.359293981484</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.35929398148148151</v>
+        <v>42401.359293981499</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -2622,13 +3242,13 @@
         <v>42402</v>
       </c>
       <c r="C34" s="4">
-        <v>42402.128819444442</v>
+        <v>42402.128819444399</v>
       </c>
       <c r="D34" s="4">
-        <v>42402.504525462966</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.50452546296296297</v>
+        <v>42402.504525463002</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -2651,13 +3271,13 @@
         <v>42403</v>
       </c>
       <c r="C35" s="4">
-        <v>42403.095173611109</v>
+        <v>42403.095173611102</v>
       </c>
       <c r="D35" s="4">
-        <v>42403.362951388888</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.36295138888888889</v>
+        <v>42403.362951388903</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -2680,13 +3300,13 @@
         <v>42404</v>
       </c>
       <c r="C36" s="4">
-        <v>42404.092870370368</v>
+        <v>42404.092870370398</v>
       </c>
       <c r="D36" s="4">
-        <v>42404.380370370367</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.38037037037037041</v>
+        <v>42404.380370370403</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -2709,13 +3329,13 @@
         <v>42405</v>
       </c>
       <c r="C37" s="4">
-        <v>42405.100185185183</v>
+        <v>42405.100185185198</v>
       </c>
       <c r="D37" s="4">
-        <v>42405.400462962964</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0.40046296296296297</v>
+        <v>42405.400462963</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -2738,13 +3358,13 @@
         <v>42406</v>
       </c>
       <c r="C38" s="4">
-        <v>42406.093414351853</v>
+        <v>42406.093414351897</v>
       </c>
       <c r="D38" s="4">
-        <v>42406.34170138889</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0.3417013888888889</v>
+        <v>42406.341701388897</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -2753,7 +3373,7 @@
         <v>0.24828703703703703</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>9</v>
@@ -2767,13 +3387,13 @@
         <v>42407</v>
       </c>
       <c r="C39" s="4">
-        <v>42407.105590277781</v>
+        <v>42407.105590277803</v>
       </c>
       <c r="D39" s="4">
-        <v>42407.530636574076</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0.53063657407407405</v>
+        <v>42407.530636574098</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -2796,13 +3416,13 @@
         <v>42407</v>
       </c>
       <c r="C40" s="4">
-        <v>42407.961458333331</v>
+        <v>42407.961458333302</v>
       </c>
       <c r="D40" s="4">
-        <v>42408.198796296296</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0.19879629629629628</v>
+        <v>42408.198796296303</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -2811,7 +3431,7 @@
         <v>0.23733796296296297</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>9</v>
@@ -2825,13 +3445,13 @@
         <v>42409</v>
       </c>
       <c r="C41" s="4">
-        <v>42409.052534722221</v>
+        <v>42409.052534722199</v>
       </c>
       <c r="D41" s="4">
-        <v>42409.260046296295</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0.26004629629629633</v>
+        <v>42409.260046296302</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -2854,13 +3474,13 @@
         <v>42410</v>
       </c>
       <c r="C42" s="4">
-        <v>42410.03297453704</v>
+        <v>42410.032974537004</v>
       </c>
       <c r="D42" s="4">
         <v>42410.247499999998</v>
       </c>
-      <c r="E42" s="5">
-        <v>0.24749999999999997</v>
+      <c r="E42" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -2883,13 +3503,13 @@
         <v>42411</v>
       </c>
       <c r="C43" s="4">
-        <v>42411.043425925927</v>
+        <v>42411.043425925898</v>
       </c>
       <c r="D43" s="4">
-        <v>42411.256157407406</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0.25615740740740739</v>
+        <v>42411.256157407399</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -2912,13 +3532,13 @@
         <v>42412</v>
       </c>
       <c r="C44" s="4">
-        <v>42412.047071759262</v>
+        <v>42412.047071759298</v>
       </c>
       <c r="D44" s="4">
-        <v>42412.258194444446</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.25819444444444445</v>
+        <v>42412.258194444403</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -2941,13 +3561,13 @@
         <v>42413</v>
       </c>
       <c r="C45" s="4">
-        <v>42413.052997685183</v>
+        <v>42413.052997685198</v>
       </c>
       <c r="D45" s="4">
-        <v>42413.269849537035</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0.26984953703703701</v>
+        <v>42413.269849536999</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -2970,13 +3590,13 @@
         <v>42414</v>
       </c>
       <c r="C46" s="4">
-        <v>42414.053657407407</v>
+        <v>42414.053657407399</v>
       </c>
       <c r="D46" s="4">
-        <v>42414.294444444444</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0.29444444444444445</v>
+        <v>42414.2944444444</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -2985,7 +3605,7 @@
         <v>0.24078703703703705</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>9</v>
@@ -2999,13 +3619,13 @@
         <v>42415</v>
       </c>
       <c r="C47" s="4">
-        <v>42415.050775462965</v>
+        <v>42415.050775463002</v>
       </c>
       <c r="D47" s="4">
-        <v>42415.282858796294</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.28285879629629629</v>
+        <v>42415.282858796301</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3014,7 +3634,7 @@
         <v>0.23208333333333334</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>9</v>
@@ -3028,13 +3648,13 @@
         <v>42416</v>
       </c>
       <c r="C48" s="4">
-        <v>42416.061493055553</v>
+        <v>42416.061493055597</v>
       </c>
       <c r="D48" s="4">
-        <v>42416.287291666667</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.28729166666666667</v>
+        <v>42416.287291666697</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3060,10 +3680,10 @@
         <v>42417.076921296299</v>
       </c>
       <c r="D49" s="4">
-        <v>42417.291134259256</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.29113425925925923</v>
+        <v>42417.2911342593</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3086,13 +3706,13 @@
         <v>42418</v>
       </c>
       <c r="C50" s="4">
-        <v>42418.065995370373</v>
+        <v>42418.065995370402</v>
       </c>
       <c r="D50" s="4">
-        <v>42418.291990740741</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0.29199074074074077</v>
+        <v>42418.291990740698</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3115,13 +3735,13 @@
         <v>42419</v>
       </c>
       <c r="C51" s="4">
-        <v>42419.082696759258</v>
+        <v>42419.082696759302</v>
       </c>
       <c r="D51" s="4">
-        <v>42419.427256944444</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0.42725694444444445</v>
+        <v>42419.4272569444</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -3144,13 +3764,13 @@
         <v>42420</v>
       </c>
       <c r="C52" s="4">
-        <v>42420.062523148146</v>
+        <v>42420.062523148103</v>
       </c>
       <c r="D52" s="4">
-        <v>42420.436909722222</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0.43690972222222224</v>
+        <v>42420.436909722201</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -3173,13 +3793,13 @@
         <v>42421</v>
       </c>
       <c r="C53" s="4">
-        <v>42421.064699074072</v>
+        <v>42421.064699074101</v>
       </c>
       <c r="D53" s="4">
-        <v>42421.282268518517</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0.28226851851851853</v>
+        <v>42421.282268518502</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -3202,13 +3822,13 @@
         <v>42422</v>
       </c>
       <c r="C54" s="4">
-        <v>42422.070949074077</v>
+        <v>42422.070949074099</v>
       </c>
       <c r="D54" s="4">
-        <v>42422.276585648149</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0.27658564814814818</v>
+        <v>42422.276585648098</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -3231,13 +3851,13 @@
         <v>42423</v>
       </c>
       <c r="C55" s="4">
-        <v>42423.083414351851</v>
+        <v>42423.083414351902</v>
       </c>
       <c r="D55" s="4">
-        <v>42423.321712962963</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0.32171296296296298</v>
+        <v>42423.321712962999</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -3246,7 +3866,7 @@
         <v>0.23829861111111109</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>9</v>
@@ -3260,13 +3880,13 @@
         <v>42424</v>
       </c>
       <c r="C56" s="4">
-        <v>42424.075613425928</v>
+        <v>42424.075613425899</v>
       </c>
       <c r="D56" s="4">
-        <v>42424.29378472222</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0.29378472222222224</v>
+        <v>42424.293784722198</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -3289,13 +3909,13 @@
         <v>42425</v>
       </c>
       <c r="C57" s="4">
-        <v>42425.088553240741</v>
+        <v>42425.088553240697</v>
       </c>
       <c r="D57" s="4">
         <v>42425.651250000003</v>
       </c>
-      <c r="E57" s="5">
-        <v>0.65125</v>
+      <c r="E57" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -3318,13 +3938,13 @@
         <v>42426</v>
       </c>
       <c r="C58" s="4">
-        <v>42426.070011574076</v>
+        <v>42426.070011574098</v>
       </c>
       <c r="D58" s="4">
-        <v>42426.314259259256</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0.31425925925925924</v>
+        <v>42426.314259259299</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -3333,7 +3953,7 @@
         <v>0.24424768518518516</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>9</v>
@@ -3347,13 +3967,13 @@
         <v>42427</v>
       </c>
       <c r="C59" s="4">
-        <v>42427.070925925924</v>
+        <v>42427.070925925902</v>
       </c>
       <c r="D59" s="4">
-        <v>42427.312916666669</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0.31291666666666668</v>
+        <v>42427.312916666699</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -3362,7 +3982,7 @@
         <v>0.24199074074074076</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>9</v>
@@ -3376,13 +3996,13 @@
         <v>42428</v>
       </c>
       <c r="C60" s="4">
-        <v>42428.071458333332</v>
+        <v>42428.071458333303</v>
       </c>
       <c r="D60" s="4">
-        <v>42428.29347222222</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0.29347222222222219</v>
+        <v>42428.293472222198</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -3405,13 +4025,13 @@
         <v>42429</v>
       </c>
       <c r="C61" s="4">
-        <v>42429.082905092589</v>
+        <v>42429.082905092597</v>
       </c>
       <c r="D61" s="4">
-        <v>42429.297743055555</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0.29774305555555552</v>
+        <v>42429.297743055598</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3434,13 +4054,13 @@
         <v>42430</v>
       </c>
       <c r="C62" s="4">
-        <v>42430.123703703706</v>
+        <v>42430.123703703699</v>
       </c>
       <c r="D62" s="4">
-        <v>42430.336597222224</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0.33659722222222221</v>
+        <v>42430.336597222202</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -3463,13 +4083,13 @@
         <v>42431</v>
       </c>
       <c r="C63" s="4">
-        <v>42431.174224537041</v>
+        <v>42431.174224536997</v>
       </c>
       <c r="D63" s="4">
-        <v>42431.450104166666</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0.45010416666666669</v>
+        <v>42431.450104166703</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -3492,13 +4112,13 @@
         <v>42432</v>
       </c>
       <c r="C64" s="4">
-        <v>42432.077708333331</v>
+        <v>42432.077708333301</v>
       </c>
       <c r="D64" s="4">
-        <v>42432.280590277776</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0.28059027777777779</v>
+        <v>42432.280590277798</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -3521,13 +4141,13 @@
         <v>42433</v>
       </c>
       <c r="C65" s="4">
-        <v>42433.09033564815</v>
+        <v>42433.090335648201</v>
       </c>
       <c r="D65" s="4">
-        <v>42433.272534722222</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0.27253472222222225</v>
+        <v>42433.2725347222</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3550,13 +4170,13 @@
         <v>42434</v>
       </c>
       <c r="C66" s="4">
-        <v>42434.072615740741</v>
+        <v>42434.072615740697</v>
       </c>
       <c r="D66" s="4">
-        <v>42434.238136574073</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0.23813657407407407</v>
+        <v>42434.238136574102</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
@@ -3579,13 +4199,13 @@
         <v>42435</v>
       </c>
       <c r="C67" s="4">
-        <v>42435.08222222222</v>
+        <v>42435.082222222198</v>
       </c>
       <c r="D67" s="4">
-        <v>42435.769432870373</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0.76943287037037045</v>
+        <v>42435.769432870402</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -3608,13 +4228,13 @@
         <v>42436</v>
       </c>
       <c r="C68" s="4">
-        <v>42436.09642361111</v>
+        <v>42436.096423611103</v>
       </c>
       <c r="D68" s="4">
-        <v>42436.286157407405</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0.28615740740740742</v>
+        <v>42436.286157407398</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -3637,13 +4257,13 @@
         <v>42437</v>
       </c>
       <c r="C69" s="4">
-        <v>42437.079907407409</v>
+        <v>42437.079907407402</v>
       </c>
       <c r="D69" s="4">
-        <v>42437.263078703705</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0.26307870370370373</v>
+        <v>42437.263078703698</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -3662,17 +4282,17 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>42438</v>
       </c>
-      <c r="C70" s="7">
-        <v>42438.169965277775</v>
-      </c>
-      <c r="D70" s="7">
-        <v>42438.42800925926</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.42800925925925926</v>
+      <c r="C70" s="4">
+        <v>42438.169965277797</v>
+      </c>
+      <c r="D70" s="4">
+        <v>42438.428009259304</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -3691,17 +4311,17 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>42439</v>
       </c>
-      <c r="C71" s="7">
-        <v>42439.106736111113</v>
-      </c>
-      <c r="D71" s="7">
-        <v>42439.29115740741</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0.29115740740740742</v>
+      <c r="C71" s="4">
+        <v>42439.106736111098</v>
+      </c>
+      <c r="D71" s="4">
+        <v>42439.291157407402</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -3720,17 +4340,17 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>42440</v>
       </c>
-      <c r="C72" s="7">
-        <v>42440.063483796293</v>
-      </c>
-      <c r="D72" s="7">
-        <v>42440.324594907404</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0.32459490740740743</v>
+      <c r="C72" s="4">
+        <v>42440.063483796301</v>
+      </c>
+      <c r="D72" s="4">
+        <v>42440.324594907397</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
@@ -3749,17 +4369,17 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="3">
         <v>42441</v>
       </c>
-      <c r="C73" s="7">
-        <v>42441.09814814815</v>
-      </c>
-      <c r="D73" s="7">
-        <v>42441.285208333335</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0.28520833333333334</v>
+      <c r="C73" s="4">
+        <v>42441.098148148201</v>
+      </c>
+      <c r="D73" s="4">
+        <v>42441.285208333298</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -3778,17 +4398,17 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="3">
         <v>42442</v>
       </c>
-      <c r="C74" s="7">
-        <v>42442.071608796294</v>
-      </c>
-      <c r="D74" s="7">
-        <v>42442.280115740738</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0.28011574074074075</v>
+      <c r="C74" s="4">
+        <v>42442.071608796301</v>
+      </c>
+      <c r="D74" s="4">
+        <v>42442.280115740701</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -3807,17 +4427,17 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="3">
         <v>42443</v>
       </c>
-      <c r="C75" s="7">
-        <v>42443.068136574075</v>
-      </c>
-      <c r="D75" s="7">
-        <v>42443.256620370368</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0.25662037037037039</v>
+      <c r="C75" s="4">
+        <v>42443.068136574097</v>
+      </c>
+      <c r="D75" s="4">
+        <v>42443.256620370397</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -3836,17 +4456,17 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="3">
         <v>42444</v>
       </c>
-      <c r="C76" s="7">
-        <v>42444.056041666663</v>
-      </c>
-      <c r="D76" s="7">
-        <v>42444.233564814815</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0.23356481481481484</v>
+      <c r="C76" s="4">
+        <v>42444.056041666699</v>
+      </c>
+      <c r="D76" s="4">
+        <v>42444.2335648148</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -3865,17 +4485,17 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="3">
         <v>42445</v>
       </c>
-      <c r="C77" s="7">
-        <v>42445.041689814818</v>
-      </c>
-      <c r="D77" s="7">
-        <v>42445.221192129633</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0.22119212962962964</v>
+      <c r="C77" s="4">
+        <v>42445.041689814803</v>
+      </c>
+      <c r="D77" s="4">
+        <v>42445.221192129597</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -3894,17 +4514,17 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="3">
         <v>42446</v>
       </c>
-      <c r="C78" s="7">
-        <v>42446.033275462964</v>
-      </c>
-      <c r="D78" s="7">
-        <v>42446.236909722225</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0.2369097222222222</v>
+      <c r="C78" s="4">
+        <v>42446.033275463</v>
+      </c>
+      <c r="D78" s="4">
+        <v>42446.236909722204</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
@@ -3923,17 +4543,17 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="3">
         <v>42447</v>
       </c>
-      <c r="C79" s="7">
-        <v>42447.042280092595</v>
-      </c>
-      <c r="D79" s="7">
-        <v>42447.23238425926</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0.23238425925925923</v>
+      <c r="C79" s="4">
+        <v>42447.042280092603</v>
+      </c>
+      <c r="D79" s="4">
+        <v>42447.232384259303</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
@@ -3952,17 +4572,17 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="3">
         <v>42448</v>
       </c>
-      <c r="C80" s="7">
-        <v>42448.050821759258</v>
-      </c>
-      <c r="D80" s="7">
-        <v>42448.293819444443</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0.29381944444444447</v>
+      <c r="C80" s="4">
+        <v>42448.050821759301</v>
+      </c>
+      <c r="D80" s="4">
+        <v>42448.2938194444</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -3971,7 +4591,7 @@
         <v>0.24299768518518516</v>
       </c>
       <c r="H80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>9</v>
@@ -3981,17 +4601,17 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="3">
         <v>42449</v>
       </c>
-      <c r="C81" s="7">
-        <v>42449.09070601852</v>
-      </c>
-      <c r="D81" s="7">
-        <v>42449.442071759258</v>
-      </c>
-      <c r="E81" s="5">
-        <v>0.44207175925925929</v>
+      <c r="C81" s="4">
+        <v>42449.090706018498</v>
+      </c>
+      <c r="D81" s="4">
+        <v>42449.442071759302</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
@@ -4010,17 +4630,17 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="3">
         <v>42450</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>42450.044374999998</v>
       </c>
-      <c r="D82" s="7">
-        <v>42450.256666666668</v>
-      </c>
-      <c r="E82" s="5">
-        <v>0.25666666666666665</v>
+      <c r="D82" s="4">
+        <v>42450.256666666697</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -4039,17 +4659,17 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="3">
         <v>42451</v>
       </c>
-      <c r="C83" s="7">
-        <v>42451.054583333331</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="C83" s="4">
+        <v>42451.054583333302</v>
+      </c>
+      <c r="D83" s="4">
         <v>42451.2575462963</v>
       </c>
-      <c r="E83" s="5">
-        <v>0.25754629629629627</v>
+      <c r="E83" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4068,17 +4688,17 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="3">
         <v>42452</v>
       </c>
-      <c r="C84" s="7">
-        <v>42452.05300925926</v>
-      </c>
-      <c r="D84" s="7">
-        <v>42452.225787037038</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0.22578703703703704</v>
+      <c r="C84" s="4">
+        <v>42452.053009259304</v>
+      </c>
+      <c r="D84" s="4">
+        <v>42452.225787037001</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -4097,17 +4717,17 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="3">
         <v>42453</v>
       </c>
-      <c r="C85" s="7">
-        <v>42453.072824074072</v>
-      </c>
-      <c r="D85" s="7">
-        <v>42453.309155092589</v>
-      </c>
-      <c r="E85" s="5">
-        <v>0.30915509259259261</v>
+      <c r="C85" s="4">
+        <v>42453.072824074101</v>
+      </c>
+      <c r="D85" s="4">
+        <v>42453.309155092596</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -4116,7 +4736,7 @@
         <v>0.23633101851851854</v>
       </c>
       <c r="H85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>9</v>
@@ -4126,17 +4746,17 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="3">
         <v>42454</v>
       </c>
-      <c r="C86" s="7">
-        <v>42454.048252314817</v>
-      </c>
-      <c r="D86" s="7">
-        <v>42454.44122685185</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0.44122685185185184</v>
+      <c r="C86" s="4">
+        <v>42454.048252314802</v>
+      </c>
+      <c r="D86" s="4">
+        <v>42454.441226851799</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -4155,17 +4775,17 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="3">
         <v>42455</v>
       </c>
-      <c r="C87" s="7">
-        <v>42455.036412037036</v>
-      </c>
-      <c r="D87" s="7">
-        <v>42455.467476851853</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0.46747685185185189</v>
+      <c r="C87" s="4">
+        <v>42455.036412037</v>
+      </c>
+      <c r="D87" s="4">
+        <v>42455.467476851903</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -4184,17 +4804,17 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="3">
         <v>42456</v>
       </c>
-      <c r="C88" s="7">
-        <v>42456.035925925928</v>
-      </c>
-      <c r="D88" s="7">
-        <v>42456.325833333336</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0.32583333333333336</v>
+      <c r="C88" s="4">
+        <v>42456.035925925898</v>
+      </c>
+      <c r="D88" s="4">
+        <v>42456.3258333333</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
@@ -4213,17 +4833,17 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="3">
         <v>42457</v>
       </c>
-      <c r="C89" s="7">
-        <v>42457.035613425927</v>
-      </c>
-      <c r="D89" s="7">
-        <v>42457.256064814814</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0.2560648148148148</v>
+      <c r="C89" s="4">
+        <v>42457.035613425898</v>
+      </c>
+      <c r="D89" s="4">
+        <v>42457.256064814799</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -4242,17 +4862,17 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="3">
         <v>42458</v>
       </c>
-      <c r="C90" s="7">
-        <v>42458.048784722225</v>
-      </c>
-      <c r="D90" s="7">
-        <v>42458.23746527778</v>
-      </c>
-      <c r="E90" s="5">
-        <v>0.23746527777777779</v>
+      <c r="C90" s="4">
+        <v>42458.048784722203</v>
+      </c>
+      <c r="D90" s="4">
+        <v>42458.237465277802</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
@@ -4271,17 +4891,17 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="3">
         <v>42459</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="4">
         <v>42459.050312500003</v>
       </c>
-      <c r="D91" s="7">
-        <v>42459.24559027778</v>
-      </c>
-      <c r="E91" s="5">
-        <v>0.24559027777777778</v>
+      <c r="D91" s="4">
+        <v>42459.245590277802</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
@@ -4297,258 +4917,830 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>42460</v>
+      </c>
+      <c r="C92" s="4">
+        <v>42460.080717592602</v>
+      </c>
+      <c r="D92" s="4">
+        <v>42460.270671296297</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.18995370370370371</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C93" s="4">
+        <v>42461.070995370399</v>
+      </c>
+      <c r="D93" s="4">
+        <v>42461.267164351899</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.19616898148148146</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>42462</v>
+      </c>
+      <c r="C94" s="4">
+        <v>42462.147233796299</v>
+      </c>
+      <c r="D94" s="4">
+        <v>42462.483865740702</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.3366319444444445</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="5"/>
-      <c r="G95" s="5"/>
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>42463</v>
+      </c>
+      <c r="C95" s="4">
+        <v>42463.059699074103</v>
+      </c>
+      <c r="D95" s="4">
+        <v>42463.244386574101</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.1846875</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="5"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="5"/>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="5"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="5"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="5"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="5"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="5"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="5"/>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="5"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="5"/>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="5"/>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="5"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="2:7">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>42464</v>
+      </c>
+      <c r="C96" s="4">
+        <v>42464.050555555601</v>
+      </c>
+      <c r="D96" s="4">
+        <v>42464.220358796301</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.16980324074074074</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>42465</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42465.056134259299</v>
+      </c>
+      <c r="D97" s="4">
+        <v>42465.246331018498</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.19019675925925927</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>42466</v>
+      </c>
+      <c r="C98" s="4">
+        <v>42466.072858796302</v>
+      </c>
+      <c r="D98" s="4">
+        <v>42466.277268518497</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.20440972222222223</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>42467</v>
+      </c>
+      <c r="C99" s="4">
+        <v>42467.062442129602</v>
+      </c>
+      <c r="D99" s="4">
+        <v>42467.241192129601</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.17874999999999999</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>42468</v>
+      </c>
+      <c r="C100" s="4">
+        <v>42468.0609722222</v>
+      </c>
+      <c r="D100" s="4">
+        <v>42468.236469907402</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.17549768518518519</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>42469</v>
+      </c>
+      <c r="C101" s="4">
+        <v>42469.059247685203</v>
+      </c>
+      <c r="D101" s="4">
+        <v>42469.3305092593</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.27126157407407409</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>42470</v>
+      </c>
+      <c r="C102" s="4">
+        <v>42470.0465162037</v>
+      </c>
+      <c r="D102" s="4">
+        <v>42470.227615740703</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.18109953703703704</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>42471</v>
+      </c>
+      <c r="C103" s="4">
+        <v>42471.048912036997</v>
+      </c>
+      <c r="D103" s="4">
+        <v>42471.234722222202</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.18581018518518519</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>42472</v>
+      </c>
+      <c r="C104" s="4">
+        <v>42472.048784722203</v>
+      </c>
+      <c r="D104" s="4">
+        <v>42472.250752314802</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.20196759259259259</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>42473</v>
+      </c>
+      <c r="C105" s="4">
+        <v>42473.061562499999</v>
+      </c>
+      <c r="D105" s="4">
+        <v>42473.242962962999</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.18140046296296297</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>42474</v>
+      </c>
+      <c r="C106" s="4">
+        <v>42474.1121180556</v>
+      </c>
+      <c r="D106" s="4">
+        <v>42474.286863425899</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.17474537037037038</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42475</v>
+      </c>
+      <c r="C107" s="4">
+        <v>42475.035648148201</v>
+      </c>
+      <c r="D107" s="4">
+        <v>42475.205706018503</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.17005787037037037</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>42476</v>
+      </c>
+      <c r="C108" s="4">
+        <v>42476.070208333302</v>
+      </c>
+      <c r="D108" s="4">
+        <v>42476.256655092599</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.18644675925925924</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42477</v>
+      </c>
+      <c r="C109" s="4">
+        <v>42477.039594907401</v>
+      </c>
+      <c r="D109" s="4">
+        <v>42477.230185185203</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.19059027777777779</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>42478</v>
+      </c>
+      <c r="C110" s="4">
+        <v>42478.048379629603</v>
+      </c>
+      <c r="D110" s="4">
+        <v>42478.205451388902</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.15707175925925926</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>42479</v>
+      </c>
+      <c r="C111" s="4">
+        <v>42479.039074074099</v>
+      </c>
+      <c r="D111" s="4">
+        <v>42479.2114351852</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.1723611111111111</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>42480</v>
+      </c>
+      <c r="C112" s="4">
+        <v>42480.073854166701</v>
+      </c>
+      <c r="D112" s="4">
+        <v>42480.242835648103</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.16898148148148148</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>42481</v>
+      </c>
+      <c r="C113" s="4">
+        <v>42481.039039351897</v>
+      </c>
+      <c r="D113" s="4">
+        <v>42481.211215277799</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.17217592592592593</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42482</v>
+      </c>
+      <c r="C114" s="4">
+        <v>42482.042199074102</v>
+      </c>
+      <c r="D114" s="4">
+        <v>42482.213726851798</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>42483</v>
+      </c>
+      <c r="C115" s="4">
+        <v>42483.0378935185</v>
+      </c>
+      <c r="D115" s="4">
+        <v>42483.269027777802</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.23113425925925926</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>42484</v>
+      </c>
+      <c r="C116" s="4">
+        <v>42484.057395833297</v>
+      </c>
+      <c r="D116" s="4">
+        <v>42484.283217592601</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.22582175925925926</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>42485</v>
+      </c>
+      <c r="C117" s="4">
+        <v>42485.0540162037</v>
+      </c>
+      <c r="D117" s="4">
+        <v>42485.246736111098</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.19271990740740741</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="1:9">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="1:9">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="1:9">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="1:9">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="1:9">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="1:9">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="1:9">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="1:9">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="1:9">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="1:9">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -6736,7 +7928,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6750,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6759,14 +7951,14 @@
       </c>
       <c r="B2">
         <f>SUM(数据!F:F)</f>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="J2">
         <f>SUM(数据!H:H)</f>
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6775,30 +7967,30 @@
       </c>
       <c r="B3">
         <f>COUNT(数据!F:F)-B2</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J3">
         <f>COUNT(数据!H:H)-J2</f>
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6826,60 +8018,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6904,16 +8104,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6935,7 +8135,7 @@
         <v>42458</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
@@ -6957,7 +8157,7 @@
         <v>42457</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
@@ -6979,7 +8179,7 @@
         <v>42456</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -6988,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54.75" thickBot="1">
@@ -6996,7 +8196,7 @@
         <v>42455</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -7005,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="54.75" thickBot="1">
@@ -7013,7 +8213,7 @@
         <v>42454</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -7022,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7046,7 +8246,7 @@
         <v>42452</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7064,7 +8264,7 @@
         <v>42451</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7082,7 +8282,7 @@
         <v>42450</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -7091,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="93.75" customHeight="1">
@@ -7099,7 +8299,7 @@
         <v>42449</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -7121,7 +8321,7 @@
         <v>42448</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" s="13">
         <v>0</v>
@@ -7143,7 +8343,7 @@
         <v>42447</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" s="13">
         <v>0</v>
@@ -7165,7 +8365,7 @@
         <v>42446</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -7187,7 +8387,7 @@
         <v>42445</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="13">
         <v>0</v>
@@ -7209,7 +8409,7 @@
         <v>42444</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C28" s="13">
         <v>0</v>
@@ -7231,7 +8431,7 @@
         <v>42443</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C30" s="13">
         <v>0</v>
@@ -7253,7 +8453,7 @@
         <v>42442</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C32" s="13">
         <v>0</v>
@@ -7275,7 +8475,7 @@
         <v>42441</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13">
         <v>0</v>
@@ -7297,7 +8497,7 @@
         <v>42440</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C36" s="13">
         <v>1</v>
@@ -7319,7 +8519,7 @@
         <v>42439</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="13">
         <v>0</v>

--- a/软维组工作汇报/表格/PPT模版.xlsx
+++ b/软维组工作汇报/表格/PPT模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="0" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="6"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="20340" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="44">
   <si>
     <t>8:00之前完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -323,15 +332,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -346,9 +346,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -406,10 +404,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,7 +420,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -438,7 +435,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -448,9 +445,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -508,10 +503,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,7 +519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -540,7 +534,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1252,6 +1246,45 @@
                 <c:pt idx="224" formatCode="yyyy/m/d">
                   <c:v>42594</c:v>
                 </c:pt>
+                <c:pt idx="225" formatCode="yyyy/m/d">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="yyyy/m/d">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="yyyy/m/d">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="yyyy/m/d">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="yyyy/m/d">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="yyyy/m/d">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="yyyy/m/d">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="yyyy/m/d">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="yyyy/m/d">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="yyyy/m/d">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="yyyy/m/d">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="yyyy/m/d">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="yyyy/m/d">
+                  <c:v>42607</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1936,29 +1969,68 @@
                 <c:pt idx="224">
                   <c:v>0.34670138888888885</c:v>
                 </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.24483796296296298</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.22670138888888888</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.22173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.31067129629629631</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.28020833333333334</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.27792824074074074</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.23778935185185182</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.26685185185185184</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.23306712962962961</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.23409722222222221</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.26530092592592591</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.3190162037037037</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.29046296296296298</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95677824"/>
-        <c:axId val="99738752"/>
+        <c:axId val="65679744"/>
+        <c:axId val="65681280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95677824"/>
+        <c:axId val="65679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99738752"/>
+        <c:crossAx val="65681280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99738752"/>
+        <c:axId val="65681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +2038,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95677824"/>
+        <c:crossAx val="65679744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,7 +2051,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1989,9 +2061,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2067,13 +2137,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,9 +2152,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2149,13 +2216,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3562,24 +3628,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110774528"/>
-        <c:axId val="111037056"/>
+        <c:axId val="65915520"/>
+        <c:axId val="65798528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110774528"/>
+        <c:axId val="65915520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111037056"/>
+        <c:crossAx val="65798528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111037056"/>
+        <c:axId val="65798528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3653,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110774528"/>
+        <c:crossAx val="65915520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3600,7 +3666,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4093,9 +4159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G215" sqref="G215:G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10667,95 +10733,381 @@
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="5"/>
-      <c r="G227" s="5"/>
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="6">
+        <v>42595</v>
+      </c>
+      <c r="C227" s="7">
+        <v>42595.048958333333</v>
+      </c>
+      <c r="D227" s="7">
+        <v>42595.293796296297</v>
+      </c>
+      <c r="E227" s="5">
+        <v>0.29379629629629628</v>
+      </c>
+      <c r="F227" s="2">
+        <v>1</v>
+      </c>
+      <c r="G227" s="5">
+        <v>0.24483796296296298</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="5"/>
-      <c r="G228" s="5"/>
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="6">
+        <v>42596</v>
+      </c>
+      <c r="C228" s="7">
+        <v>42596.0700462963</v>
+      </c>
+      <c r="D228" s="7">
+        <v>42596.296747685185</v>
+      </c>
+      <c r="E228" s="5">
+        <v>0.29674768518518518</v>
+      </c>
+      <c r="F228" s="2">
+        <v>1</v>
+      </c>
+      <c r="G228" s="5">
+        <v>0.22670138888888888</v>
+      </c>
+      <c r="H228" s="2">
+        <v>1</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="5"/>
-      <c r="G229" s="5"/>
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="6">
+        <v>42597</v>
+      </c>
+      <c r="C229" s="7">
+        <v>42597.066388888888</v>
+      </c>
+      <c r="D229" s="7">
+        <v>42597.288124999999</v>
+      </c>
+      <c r="E229" s="5">
+        <v>0.28812500000000002</v>
+      </c>
+      <c r="F229" s="2">
+        <v>1</v>
+      </c>
+      <c r="G229" s="5">
+        <v>0.22173611111111111</v>
+      </c>
+      <c r="H229" s="2">
+        <v>1</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="5"/>
-      <c r="G230" s="5"/>
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="6">
+        <v>42598</v>
+      </c>
+      <c r="C230" s="7">
+        <v>42598.075231481482</v>
+      </c>
+      <c r="D230" s="7">
+        <v>42598.38590277778</v>
+      </c>
+      <c r="E230" s="5">
+        <v>0.38590277777777776</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0</v>
+      </c>
+      <c r="G230" s="5">
+        <v>0.31067129629629631</v>
+      </c>
+      <c r="H230" s="2">
+        <v>0</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="5"/>
-      <c r="G231" s="5"/>
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="6">
+        <v>42599</v>
+      </c>
+      <c r="C231" s="7">
+        <v>42599.090046296296</v>
+      </c>
+      <c r="D231" s="7">
+        <v>42599.370254629626</v>
+      </c>
+      <c r="E231" s="5">
+        <v>0.37025462962962963</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5">
+        <v>0.28020833333333334</v>
+      </c>
+      <c r="H231" s="2">
+        <v>0</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="B232" s="6"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="5"/>
-      <c r="G232" s="5"/>
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="6">
+        <v>42600</v>
+      </c>
+      <c r="C232" s="7">
+        <v>42600.060104166667</v>
+      </c>
+      <c r="D232" s="7">
+        <v>42600.33803240741</v>
+      </c>
+      <c r="E232" s="5">
+        <v>0.33803240740740742</v>
+      </c>
+      <c r="F232" s="2">
+        <v>0</v>
+      </c>
+      <c r="G232" s="5">
+        <v>0.27792824074074074</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="5"/>
-      <c r="G233" s="5"/>
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="6">
+        <v>42601</v>
+      </c>
+      <c r="C233" s="7">
+        <v>42601.059525462966</v>
+      </c>
+      <c r="D233" s="7">
+        <v>42601.297314814816</v>
+      </c>
+      <c r="E233" s="5">
+        <v>0.29731481481481481</v>
+      </c>
+      <c r="F233" s="2">
+        <v>1</v>
+      </c>
+      <c r="G233" s="5">
+        <v>0.23778935185185182</v>
+      </c>
+      <c r="H233" s="2">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="234" spans="1:9">
-      <c r="B234" s="6"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="5"/>
-      <c r="G234" s="5"/>
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="6">
+        <v>42602</v>
+      </c>
+      <c r="C234" s="7">
+        <v>42602.070543981485</v>
+      </c>
+      <c r="D234" s="7">
+        <v>42602.337395833332</v>
+      </c>
+      <c r="E234" s="5">
+        <v>0.33739583333333334</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0</v>
+      </c>
+      <c r="G234" s="5">
+        <v>0.26685185185185184</v>
+      </c>
+      <c r="H234" s="2">
+        <v>0</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="235" spans="1:9">
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="6">
+        <v>42603</v>
+      </c>
+      <c r="C235" s="7">
+        <v>42603.061481481483</v>
+      </c>
+      <c r="D235" s="7">
+        <v>42603.294548611113</v>
+      </c>
+      <c r="E235" s="5">
+        <v>0.29454861111111114</v>
+      </c>
+      <c r="F235" s="2">
+        <v>1</v>
+      </c>
+      <c r="G235" s="5">
+        <v>0.23306712962962961</v>
+      </c>
+      <c r="H235" s="2">
+        <v>0</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="B236" s="6"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="5"/>
-      <c r="G236" s="5"/>
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="6">
+        <v>42604</v>
+      </c>
+      <c r="C236" s="7">
+        <v>42604.064803240741</v>
+      </c>
+      <c r="D236" s="7">
+        <v>42604.298900462964</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0.29890046296296297</v>
+      </c>
+      <c r="F236" s="2">
+        <v>1</v>
+      </c>
+      <c r="G236" s="5">
+        <v>0.23409722222222221</v>
+      </c>
+      <c r="H236" s="2">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="B237" s="6"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="6">
+        <v>42605</v>
+      </c>
+      <c r="C237" s="7">
+        <v>42605.075324074074</v>
+      </c>
+      <c r="D237" s="7">
+        <v>42605.340624999997</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0.34062500000000001</v>
+      </c>
+      <c r="F237" s="2">
+        <v>0</v>
+      </c>
+      <c r="G237" s="5">
+        <v>0.26530092592592591</v>
+      </c>
+      <c r="H237" s="2">
+        <v>0</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="B238" s="6"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="6">
+        <v>42606</v>
+      </c>
+      <c r="C238" s="7">
+        <v>42606.077372685184</v>
+      </c>
+      <c r="D238" s="7">
+        <v>42606.39638888889</v>
+      </c>
+      <c r="E238" s="5">
+        <v>0.3963888888888889</v>
+      </c>
+      <c r="F238" s="2">
+        <v>0</v>
+      </c>
+      <c r="G238" s="5">
+        <v>0.3190162037037037</v>
+      </c>
+      <c r="H238" s="2">
+        <v>0</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="B239" s="6"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="5"/>
-      <c r="G239" s="5"/>
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="6">
+        <v>42607</v>
+      </c>
+      <c r="C239" s="7">
+        <v>42607.059583333335</v>
+      </c>
+      <c r="D239" s="7">
+        <v>42607.350046296298</v>
+      </c>
+      <c r="E239" s="5">
+        <v>0.3500462962962963</v>
+      </c>
+      <c r="F239" s="2">
+        <v>0</v>
+      </c>
+      <c r="G239" s="5">
+        <v>0.29046296296296298</v>
+      </c>
+      <c r="H239" s="2">
+        <v>0</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="240" spans="1:9">
       <c r="B240" s="6"/>
@@ -12185,14 +12537,14 @@
       </c>
       <c r="B2">
         <f>SUM(数据!F:F)</f>
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2">
         <f>SUM(数据!H:H)</f>
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12201,14 +12553,14 @@
       </c>
       <c r="B3">
         <f>COUNT(数据!F:F)-B2</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
       </c>
       <c r="J3">
         <f>COUNT(数据!H:H)-J2</f>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12217,14 +12569,14 @@
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -12351,62 +12703,62 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="18">
         <v>42458</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="20">
         <v>0</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="18">
         <v>42457</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="20">
         <v>0</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="54.75" thickBot="1">
       <c r="A8" s="10">
@@ -12460,56 +12812,56 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="18">
         <v>42453</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11">
+      <c r="A13" s="18">
         <v>42452</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11">
+      <c r="A15" s="18">
         <v>42451</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="41.25" thickBot="1">
       <c r="A17" s="10">
@@ -12529,334 +12881,334 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="18">
         <v>42449</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="168" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="18">
         <v>42448</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="20">
         <v>0</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="20">
         <v>0</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11">
+      <c r="A22" s="18">
         <v>42447</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="20">
         <v>0</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11">
+      <c r="A24" s="18">
         <v>42446</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="20">
         <v>0</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="20">
         <v>0</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11">
+      <c r="A26" s="18">
         <v>42445</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="20">
         <v>0</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="20">
         <v>0</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11">
+      <c r="A28" s="18">
         <v>42444</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="20">
         <v>0</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="20">
         <v>0</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11">
+      <c r="A30" s="18">
         <v>42443</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="20">
         <v>0</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="20">
         <v>0</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11">
+      <c r="A32" s="18">
         <v>42442</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="20">
         <v>0</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="20">
         <v>0</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11">
+      <c r="A34" s="18">
         <v>42441</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="20">
         <v>0</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="20">
         <v>0</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A36" s="11">
+      <c r="A36" s="18">
         <v>42440</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13"/>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11">
+      <c r="A38" s="18">
         <v>42439</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="20">
         <v>0</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="20">
         <v>0</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12878,5228 +13230,5228 @@
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
         <v>42370</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
         <v>42370.1573263889</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="13">
         <v>42370.2168634259</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="16">
         <v>5.9537037037037034E-2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="12">
         <v>42371</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13">
         <v>42371.203240740702</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>42371.246249999997</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="16">
         <v>4.3009259259259254E-2</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="12">
         <v>42372</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13">
         <v>42372.099849537</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>42372.100729166697</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="16">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="12">
         <v>42373</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13">
         <v>42373.1008912037</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="13">
         <v>42373.104074074101</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="16">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <v>42374</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13">
         <v>42374.115347222199</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="13">
         <v>42374.139826388899</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="16">
         <v>2.4479166666666666E-2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="12">
         <v>42375</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13">
         <v>42375.098530092597</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="13">
         <v>42375.133900462999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="16">
         <v>3.5370370370370365E-2</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>42376</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13">
         <v>42376.3517013889</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <v>42376.407546296301</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="16">
         <v>5.5844907407407406E-2</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>42377</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13">
         <v>42377.408668981501</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="13">
         <v>42377.444930555597</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="16">
         <v>3.6261574074074078E-2</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>42378</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13">
         <v>42378.091736111099</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>42378.105497685203</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="16">
         <v>1.3761574074074074E-2</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="12">
         <v>42379</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13">
         <v>42379.096851851798</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <v>42379.099282407398</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="16">
         <v>2.4305555555555556E-3</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>42380</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="13">
         <v>42380.104988425897</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>42380.105219907397</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="16">
         <v>2.3148148148148146E-4</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>42381</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13">
         <v>42381.087337962999</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <v>42381.093159722201</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="16">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>42382</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13">
         <v>42382.085763888899</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>42382.102881944404</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="16">
         <v>1.7118055555555556E-2</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>42383</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13">
         <v>42383.103125000001</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <v>42383.125601851898</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="16">
         <v>2.2476851851851855E-2</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>42384</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13">
         <v>42384.105127314797</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <v>42384.124212962997</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="16">
         <v>1.9085648148148147E-2</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>42385</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13">
         <v>42385.141250000001</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="13">
         <v>42385.157094907401</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="16">
         <v>1.5844907407407408E-2</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="12">
         <v>42386</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13">
         <v>42386.126585648097</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <v>42386.128611111097</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="16">
         <v>2.0254629629629629E-3</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="12">
         <v>42387</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13">
         <v>42387.127708333297</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="13">
         <v>42387.127766203703</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>42388</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13">
         <v>42388.080208333296</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <v>42388.095763888901</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="16">
         <v>1.5555555555555553E-2</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="12">
         <v>42389</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13">
         <v>42389.078194444402</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <v>42389.090150463002</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="16">
         <v>1.1956018518518517E-2</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>42390</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="C22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13">
         <v>42390.1629398148</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="13">
         <v>42390.177337963003</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="16">
         <v>1.4398148148148148E-2</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="12">
         <v>42391</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="13">
         <v>42391.318321759303</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <v>42391.327418981498</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="16">
         <v>9.0972222222222218E-3</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>42392</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="C24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="13">
         <v>42392.106921296298</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <v>42392.150243055599</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="16">
         <v>4.3321759259259261E-2</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="12">
         <v>42393</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="19">
+      <c r="C25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="13">
         <v>42393.094131944403</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="13">
         <v>42393.096574074101</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="16">
         <v>2.4421296296296296E-3</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>42394</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="C26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13">
         <v>42394.1090162037</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="13">
         <v>42394.109074074098</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>42395</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="19">
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13">
         <v>42395.107638888898</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="13">
         <v>42395.121412036999</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="16">
         <v>1.3773148148148147E-2</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>42396</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="C28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13">
         <v>42396.113287036998</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <v>42396.120219907403</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="16">
         <v>6.9328703703703696E-3</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="12">
         <v>42397</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="19">
+      <c r="C29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13">
         <v>42397.093055555597</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="13">
         <v>42397.110324074099</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="16">
         <v>1.726851851851852E-2</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="12">
         <v>42398</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="C30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13">
         <v>42398.089594907397</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="13">
         <v>42398.093958333302</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="16">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="12">
         <v>42399</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="19">
+      <c r="C31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13">
         <v>42399.143263888902</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="13">
         <v>42399.154097222199</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="16">
         <v>1.0833333333333334E-2</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>42400</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="C32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="13">
         <v>42400.114016203697</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="13">
         <v>42400.117060185199</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="16">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>42401</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="19">
+      <c r="C33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="13">
         <v>42401.162928240701</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="13">
         <v>42401.170451388898</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="16">
         <v>7.5231481481481477E-3</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>42402</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13">
         <v>42402.167511574102</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="13">
         <v>42402.181377314802</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="16">
         <v>1.3865740740740739E-2</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>42403</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13">
         <v>42403.130034722199</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="13">
         <v>42403.135636574101</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="16">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>42404</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13">
         <v>42404.130127314798</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="13">
         <v>42404.135405092602</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="16">
         <v>5.2777777777777771E-3</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>42405</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="19">
+      <c r="C37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13">
         <v>42405.1342939815</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="13">
         <v>42405.137743055602</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="16">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>42406</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="19">
+      <c r="C38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="13">
         <v>42406.125254629602</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="13">
         <v>42406.125613425902</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="16">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>42407</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="C39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="13">
         <v>42407.220185185201</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="13">
         <v>42407.220509259299</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="16">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="17">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>42407</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="19">
+      <c r="C40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="13">
         <v>42407.990636574097</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="13">
         <v>42407.990821759297</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="16">
         <v>1.8518518518518518E-4</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="17">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="12">
         <v>42409</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="19">
+      <c r="C41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13">
         <v>42409.0840046296</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="13">
         <v>42409.084062499998</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="12">
         <v>42410</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="19">
+      <c r="C42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13">
         <v>42410.065231481502</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="13">
         <v>42410.065300925897</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12">
         <v>42411</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="13">
         <v>42411.075787037</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="13">
         <v>42411.075844907398</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="12">
         <v>42412</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="13">
         <v>42412.0784837963</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="13">
         <v>42412.078611111101</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="12">
         <v>42413</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="19">
+      <c r="C45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="13">
         <v>42413.086273148103</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="13">
         <v>42413.0863425926</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="12">
         <v>42414</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="13">
         <v>42414.0878703704</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="13">
         <v>42414.0880092593</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="16">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="12">
         <v>42415</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="C47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="13">
         <v>42415.090717592597</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="13">
         <v>42415.094282407401</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="16">
         <v>3.5648148148148154E-3</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="12">
         <v>42416</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="13">
         <v>42416.100590277798</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="13">
         <v>42416.118703703702</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="16">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="17">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="12">
         <v>42417</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="19">
+      <c r="C49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="13">
         <v>42417.110254629602</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="13">
         <v>42417.121215277803</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="16">
         <v>1.0960648148148148E-2</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>42418</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="19">
+      <c r="C50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="13">
         <v>42418.106747685197</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="13">
         <v>42418.116249999999</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="16">
         <v>9.5023148148148159E-3</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="12">
         <v>42419</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="19">
+      <c r="C51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="13">
         <v>42419.118587962999</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="13">
         <v>42419.127141203702</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="16">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="12">
         <v>42420</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="19">
+      <c r="C52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="13">
         <v>42420.098263888904</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="13">
         <v>42420.112326388902</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="16">
         <v>1.40625E-2</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="12">
         <v>42421</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="19">
+      <c r="C53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="13">
         <v>42421.100405092599</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="13">
         <v>42421.1004861111</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="16">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="12">
         <v>42422</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="19">
+      <c r="C54" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="13">
         <v>42422.106168981503</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="13">
         <v>42422.106238425898</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="17">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="12">
         <v>42423</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="19">
+      <c r="C55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="13">
         <v>42423.121354166702</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="13">
         <v>42423.133738425902</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="16">
         <v>1.238425925925926E-2</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="17">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="12">
         <v>42424</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="C56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="13">
         <v>42424.111782407403</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="13">
         <v>42424.115104166704</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="16">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="12">
         <v>42425</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="19">
+      <c r="C57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="13">
         <v>42425.348194444399</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="13">
         <v>42425.439224537004</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="16">
         <v>9.1030092592592593E-2</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="17">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="12">
         <v>42426</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="19">
+      <c r="C58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="13">
         <v>42426.1101851852</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="13">
         <v>42426.146296296298</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="16">
         <v>3.6111111111111115E-2</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="12">
         <v>42427</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="19">
+      <c r="C59" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="13">
         <v>42427.1097337963</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="13">
         <v>42427.113414351901</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="16">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="12">
         <v>42428</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="19">
+      <c r="C60" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="13">
         <v>42428.105358796303</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="13">
         <v>42428.105868055602</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="16">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="12">
         <v>42429</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="19">
+      <c r="C61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="13">
         <v>42429.117511574099</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="13">
         <v>42429.117569444403</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="17">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="12">
         <v>42430</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="19">
+      <c r="C62" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="13">
         <v>42430.162708333301</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="13">
         <v>42430.179039351897</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="16">
         <v>1.6331018518518519E-2</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="17">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="12">
         <v>42431</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="19">
+      <c r="C63" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="13">
         <v>42431.213819444398</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="13">
         <v>42431.2515740741</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="16">
         <v>3.7754629629629631E-2</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="17">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="12">
         <v>42432</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="19">
+      <c r="C64" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="13">
         <v>42432.118483796301</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="13">
         <v>42432.127777777801</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="16">
         <v>9.2939814814814812E-3</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="17">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="12">
         <v>42433</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="19">
+      <c r="C65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="13">
         <v>42433.110104166699</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="13">
         <v>42433.1192592593</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="16">
         <v>9.1550925925925931E-3</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="17">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="12">
         <v>42434</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="19">
+      <c r="C66" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="13">
         <v>42434.091921296298</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="13">
         <v>42434.098356481503</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="16">
         <v>6.4351851851851861E-3</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="17">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="12">
         <v>42435</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="19">
+      <c r="C67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="13">
         <v>42435.096585648098</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="13">
         <v>42435.096701388902</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="17">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="12">
         <v>42436</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="19">
+      <c r="C68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="13">
         <v>42436.111481481501</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="13">
         <v>42436.111550925903</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="12">
         <v>42437</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="19">
+      <c r="C69" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="13">
         <v>42437.096608796302</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="13">
         <v>42437.114178240699</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="16">
         <v>1.7569444444444447E-2</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="12">
         <v>42438</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="19">
+      <c r="C70" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="13">
         <v>42438.183101851799</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="13">
         <v>42438.194629629601</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="16">
         <v>1.1527777777777777E-2</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="17">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="12">
         <v>42439</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="19">
+      <c r="C71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="13">
         <v>42439.123460648101</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="13">
         <v>42439.1402662037</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="16">
         <v>1.6805555555555556E-2</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="17">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="12">
         <v>42440</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="19">
+      <c r="C72" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="13">
         <v>42440.080995370401</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="13">
         <v>42440.087256944404</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="16">
         <v>6.2615740740740748E-3</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="17">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="12">
         <v>42441</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="19">
+      <c r="C73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="13">
         <v>42441.120196759301</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73" s="13">
         <v>42441.126238425903</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="16">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="17">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="12">
         <v>42442</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="19">
+      <c r="C74" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="13">
         <v>42442.085972222201</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="13">
         <v>42442.0860300926</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="17">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="12">
         <v>42443</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="19">
+      <c r="C75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="13">
         <v>42443.083773148202</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="13">
         <v>42443.083888888897</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="17">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="12">
         <v>42444</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="19">
+      <c r="C76" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="13">
         <v>42444.074039351799</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="13">
         <v>42444.080335648097</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="16">
         <v>6.2962962962962964E-3</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="17">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="12">
         <v>42445</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="19">
+      <c r="C77" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="13">
         <v>42445.058923611097</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="13">
         <v>42445.063692129603</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="16">
         <v>4.7685185185185183E-3</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="17">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="12">
         <v>42446</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="19">
+      <c r="C78" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="13">
         <v>42446.048530092601</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="13">
         <v>42446.063692129603</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="16">
         <v>1.5162037037037036E-2</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G78" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="17">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="12">
         <v>42447</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="19">
+      <c r="C79" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="13">
         <v>42447.0603819444</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="13">
         <v>42447.079224537003</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="16">
         <v>1.8842592592592591E-2</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="17">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="12">
         <v>42448</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="19">
+      <c r="C80" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="13">
         <v>42448.066759259302</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="13">
         <v>42448.077418981498</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="16">
         <v>1.0659722222222221E-2</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="17">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="12">
         <v>42449</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="19">
+      <c r="C81" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="13">
         <v>42449.103842592602</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="13">
         <v>42449.103935185201</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="16">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="17">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="12">
         <v>42450</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="19">
+      <c r="C82" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="13">
         <v>42450.060543981497</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="13">
         <v>42450.060671296298</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="17">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="12">
         <v>42451</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="19">
+      <c r="C83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="13">
         <v>42451.073171296302</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="13">
         <v>42451.080717592602</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="16">
         <v>7.5462962962962966E-3</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="17">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="12">
         <v>42452</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="19">
+      <c r="C84" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="13">
         <v>42452.0711689815</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="13">
         <v>42452.078368055598</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="16">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="17">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="12">
         <v>42453</v>
       </c>
-      <c r="C85" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="19">
+      <c r="C85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="13">
         <v>42453.094895833303</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="13">
         <v>42453.105115740698</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="16">
         <v>1.0219907407407408E-2</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G85" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="17">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="12">
         <v>42454</v>
       </c>
-      <c r="C86" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="19">
+      <c r="C86" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="13">
         <v>42454.064641203702</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="13">
         <v>42454.073541666701</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="16">
         <v>8.9004629629629625E-3</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="17">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="12">
         <v>42455</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="19">
+      <c r="C87" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="13">
         <v>42455.057280092602</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="13">
         <v>42455.076493055603</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="16">
         <v>1.9212962962962963E-2</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="17">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="12">
         <v>42456</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" s="19">
+      <c r="C88" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="13">
         <v>42456.051585648202</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="13">
         <v>42456.051736111098</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="16">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="17">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B89" s="12">
         <v>42457</v>
       </c>
-      <c r="C89" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="19">
+      <c r="C89" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="13">
         <v>42457.050266203703</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="13">
         <v>42457.050381944398</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="17">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="12">
         <v>42458</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="19">
+      <c r="C90" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="13">
         <v>42458.069687499999</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="13">
         <v>42458.101076388899</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="16">
         <v>3.138888888888889E-2</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="17">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="12">
         <v>42459</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="19">
+      <c r="C91" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="13">
         <v>42459.064780092602</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="13">
         <v>42459.072835648098</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="16">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="17">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="12">
         <v>42460</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="19">
+      <c r="C92" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="13">
         <v>42460.1022800926</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="13">
         <v>42460.112291666701</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="16">
         <v>1.0011574074074074E-2</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="17">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="12">
         <v>42461</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="19">
+      <c r="C93" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="13">
         <v>42461.089432870402</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="13">
         <v>42461.116805555597</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="16">
         <v>2.7372685185185184E-2</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="17">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="12">
         <v>42462</v>
       </c>
-      <c r="C94" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="19">
+      <c r="C94" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="13">
         <v>42462.162835648101</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="13">
         <v>42462.204571759299</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="16">
         <v>4.1736111111111113E-2</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="17">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="12">
         <v>42463</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" s="19">
+      <c r="C95" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="13">
         <v>42463.0726041667</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="13">
         <v>42463.072766203702</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="16">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="17">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="12">
         <v>42464</v>
       </c>
-      <c r="C96" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" s="19">
+      <c r="C96" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="13">
         <v>42464.063703703701</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="13">
         <v>42464.063819444404</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="17">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="12">
         <v>42465</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="19">
+      <c r="C97" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="13">
         <v>42465.068969907399</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="13">
         <v>42465.069085648101</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="17">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="12">
         <v>42466</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="19">
+      <c r="C98" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="13">
         <v>42466.092199074097</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="13">
         <v>42466.140995370399</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="16">
         <v>4.8796296296296303E-2</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="17">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B99" s="12">
         <v>42467</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="19">
+      <c r="C99" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="13">
         <v>42467.077037037001</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="13">
         <v>42467.084791666697</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="16">
         <v>7.7546296296296287E-3</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="17">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="12">
         <v>42468</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="19">
+      <c r="C100" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="13">
         <v>42468.074027777802</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="13">
         <v>42468.080208333296</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="16">
         <v>6.1805555555555563E-3</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="17">
+      <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="18">
+      <c r="B101" s="12">
         <v>42469</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="19">
+      <c r="C101" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="13">
         <v>42469.073240740698</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="13">
         <v>42469.083159722199</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="16">
         <v>9.9189814814814817E-3</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="17">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="18">
+      <c r="B102" s="12">
         <v>42470</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" s="19">
+      <c r="C102" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="13">
         <v>42470.058877314797</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="13">
         <v>42470.059027777803</v>
       </c>
-      <c r="F102" s="22">
+      <c r="F102" s="16">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="G102" s="17" t="s">
+      <c r="G102" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="17">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="18">
+      <c r="B103" s="12">
         <v>42471</v>
       </c>
-      <c r="C103" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D103" s="19">
+      <c r="C103" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="13">
         <v>42471.062129629601</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="13">
         <v>42471.062245370398</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="17">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="18">
+      <c r="B104" s="12">
         <v>42472</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="19">
+      <c r="C104" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="13">
         <v>42472.064178240696</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="13">
         <v>42472.105196759301</v>
       </c>
-      <c r="F104" s="22">
+      <c r="F104" s="16">
         <v>4.1018518518518517E-2</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="17">
+      <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="12">
         <v>42473</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" s="19">
+      <c r="C105" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="13">
         <v>42473.073182870401</v>
       </c>
-      <c r="E105" s="19">
+      <c r="E105" s="13">
         <v>42473.087627314802</v>
       </c>
-      <c r="F105" s="22">
+      <c r="F105" s="16">
         <v>1.4444444444444446E-2</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="17">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="12">
         <v>42474</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" s="19">
+      <c r="C106" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="13">
         <v>42474.126238425903</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="13">
         <v>42474.137361111098</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="16">
         <v>1.1122685185185185E-2</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="17">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="12">
         <v>42475</v>
       </c>
-      <c r="C107" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" s="19">
+      <c r="C107" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="13">
         <v>42475.052210648202</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="13">
         <v>42475.070428240702</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="16">
         <v>1.8217592592592594E-2</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="17">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B108" s="12">
         <v>42476</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="19">
+      <c r="C108" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="13">
         <v>42476.101041666698</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="13">
         <v>42476.1116666667</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="16">
         <v>1.0625000000000001E-2</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="17">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="12">
         <v>42477</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="19">
+      <c r="C109" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="13">
         <v>42477.054027777798</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109" s="13">
         <v>42477.0542824074</v>
       </c>
-      <c r="F109" s="22">
+      <c r="F109" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="17">
+      <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B110" s="12">
         <v>42478</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="19">
+      <c r="C110" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="13">
         <v>42478.062777777799</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110" s="13">
         <v>42478.062870370399</v>
       </c>
-      <c r="F110" s="22">
+      <c r="F110" s="16">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="17">
+      <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="12">
         <v>42479</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="19">
+      <c r="C111" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="13">
         <v>42479.058252314797</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E111" s="13">
         <v>42479.0794328704</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="16">
         <v>2.1180555555555553E-2</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="17">
+      <c r="A112" s="11">
         <v>111</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="12">
         <v>42480</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" s="19">
+      <c r="C112" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="13">
         <v>42480.091145833299</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E112" s="13">
         <v>42480.1015625</v>
       </c>
-      <c r="F112" s="22">
+      <c r="F112" s="16">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="17">
+      <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="12">
         <v>42481</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D113" s="19">
+      <c r="C113" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" s="13">
         <v>42481.060324074097</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="13">
         <v>42481.079062500001</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="16">
         <v>1.8738425925925926E-2</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="17">
+      <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="12">
         <v>42482</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="19">
+      <c r="C114" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="13">
         <v>42482.063113425902</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="13">
         <v>42482.085115740701</v>
       </c>
-      <c r="F114" s="22">
+      <c r="F114" s="16">
         <v>2.2002314814814818E-2</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="17">
+      <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="12">
         <v>42483</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="19">
+      <c r="C115" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="13">
         <v>42483.059259259302</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="13">
         <v>42483.069074074097</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="16">
         <v>9.8148148148148144E-3</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="17">
+      <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="12">
         <v>42484</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" s="19">
+      <c r="C116" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="13">
         <v>42484.075243055602</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="13">
         <v>42484.085868055598</v>
       </c>
-      <c r="F116" s="22">
+      <c r="F116" s="16">
         <v>1.0625000000000001E-2</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G116" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="17">
+      <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="12">
         <v>42485</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D117" s="19">
+      <c r="C117" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="13">
         <v>42485.0730092593</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="13">
         <v>42485.073136574101</v>
       </c>
-      <c r="F117" s="22">
+      <c r="F117" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="17">
+      <c r="A118" s="11">
         <v>117</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="12">
         <v>42486</v>
       </c>
-      <c r="C118" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="19">
+      <c r="C118" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="13">
         <v>42486.077083333301</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="13">
         <v>42486.1233796296</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="16">
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="17">
+      <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="12">
         <v>42487</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="19">
+      <c r="C119" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="13">
         <v>42487.076273148101</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="13">
         <v>42487.135023148097</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="16">
         <v>5.8750000000000004E-2</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="17">
+      <c r="A120" s="11">
         <v>119</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="12">
         <v>42488</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D120" s="19">
+      <c r="C120" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="13">
         <v>42488.107662037</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="13">
         <v>42488.212291666699</v>
       </c>
-      <c r="F120" s="22">
+      <c r="F120" s="16">
         <v>0.10462962962962963</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="17">
+      <c r="A121" s="11">
         <v>120</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="12">
         <v>42489</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="19">
+      <c r="C121" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="13">
         <v>42489.1945023148</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="13">
         <v>42489.222222222197</v>
       </c>
-      <c r="F121" s="22">
+      <c r="F121" s="16">
         <v>2.7719907407407405E-2</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="17">
+      <c r="A122" s="11">
         <v>121</v>
       </c>
-      <c r="B122" s="18">
+      <c r="B122" s="12">
         <v>42490</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="19">
+      <c r="C122" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="13">
         <v>42490.0753819444</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="13">
         <v>42490.121168981503</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="16">
         <v>4.5787037037037036E-2</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="17">
+      <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="18">
+      <c r="B123" s="12">
         <v>42491</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="19">
+      <c r="C123" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="13">
         <v>42491.149525462999</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="13">
         <v>42491.166712963</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="16">
         <v>1.7187499999999998E-2</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="17">
+      <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="18">
+      <c r="B124" s="12">
         <v>42492</v>
       </c>
-      <c r="C124" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" s="19">
+      <c r="C124" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="13">
         <v>42492.136435185203</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="13">
         <v>42492.149479166699</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="16">
         <v>1.3043981481481483E-2</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G124" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="17">
+      <c r="A125" s="11">
         <v>124</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B125" s="12">
         <v>42493</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" s="19">
+      <c r="C125" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="13">
         <v>42493.129548611098</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="13">
         <v>42493.129664351902</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="G125" s="17" t="s">
+      <c r="G125" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="17">
+      <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="12">
         <v>42494</v>
       </c>
-      <c r="C126" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="19">
+      <c r="C126" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" s="13">
         <v>42494.317407407398</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="13">
         <v>42494.432407407403</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="16">
         <v>0.11499999999999999</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="17">
+      <c r="A127" s="11">
         <v>126</v>
       </c>
-      <c r="B127" s="18">
+      <c r="B127" s="12">
         <v>42495</v>
       </c>
-      <c r="C127" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D127" s="19">
+      <c r="C127" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" s="13">
         <v>42495.074247685203</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127" s="13">
         <v>42495.111064814802</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="16">
         <v>3.681712962962963E-2</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="17">
+      <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="12">
         <v>42496</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="19">
+      <c r="C128" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="13">
         <v>42496.062708333302</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="13">
         <v>42496.1260763889</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="16">
         <v>6.3368055555555566E-2</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="17">
+      <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B129" s="12">
         <v>42497</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="19">
+      <c r="C129" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="13">
         <v>42497.062222222201</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="13">
         <v>42497.090185185203</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="16">
         <v>2.7962962962962964E-2</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="17">
+      <c r="A130" s="11">
         <v>129</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="12">
         <v>42498</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" s="19">
+      <c r="C130" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" s="13">
         <v>42498.059293981503</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="13">
         <v>42498.059560185196</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="16">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="17">
+      <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="12">
         <v>42499</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" s="19">
+      <c r="C131" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="13">
         <v>42499.062743055598</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131" s="13">
         <v>42499.062789351898</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="16">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="17">
+      <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="12">
         <v>42500</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D132" s="19">
+      <c r="C132" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="13">
         <v>42500.056319444397</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="13">
         <v>42500.131631944401</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="16">
         <v>7.5312500000000004E-2</v>
       </c>
-      <c r="G132" s="17" t="s">
+      <c r="G132" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="17">
+      <c r="A133" s="11">
         <v>132</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="12">
         <v>42501</v>
       </c>
-      <c r="C133" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="19">
+      <c r="C133" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="13">
         <v>42501.058310185203</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133" s="13">
         <v>42501.096770833297</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="16">
         <v>3.8460648148148147E-2</v>
       </c>
-      <c r="G133" s="17" t="s">
+      <c r="G133" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="17">
+      <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="12">
         <v>42502</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="19">
+      <c r="C134" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="13">
         <v>42502.067905092597</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="13">
         <v>42502.096655092602</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="16">
         <v>2.8749999999999998E-2</v>
       </c>
-      <c r="G134" s="17" t="s">
+      <c r="G134" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="17">
+      <c r="A135" s="11">
         <v>134</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="12">
         <v>42503</v>
       </c>
-      <c r="C135" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="19">
+      <c r="C135" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="13">
         <v>42503.066319444399</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E135" s="13">
         <v>42503.115324074097</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="16">
         <v>4.9004629629629627E-2</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="17">
+      <c r="A136" s="11">
         <v>135</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="12">
         <v>42504</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" s="19">
+      <c r="C136" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="13">
         <v>42504.060162037</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="13">
         <v>42504.099537037</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="16">
         <v>3.9375E-2</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="17">
+      <c r="A137" s="11">
         <v>136</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="12">
         <v>42505</v>
       </c>
-      <c r="C137" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D137" s="19">
+      <c r="C137" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="13">
         <v>42505.059918981497</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="13">
         <v>42505.061446759297</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="16">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="17">
+      <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="12">
         <v>42506</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="19">
+      <c r="C138" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="13">
         <v>42506.0867939815</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="13">
         <v>42506.086898148104</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="16">
         <v>1.0416666666666667E-4</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="17">
+      <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="12">
         <v>42507</v>
       </c>
-      <c r="C139" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D139" s="19">
+      <c r="C139" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="13">
         <v>42507.064317129603</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="13">
         <v>42507.103518518503</v>
       </c>
-      <c r="F139" s="22">
+      <c r="F139" s="16">
         <v>3.920138888888889E-2</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="17">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="12">
         <v>42508</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140" s="19">
+      <c r="C140" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="13">
         <v>42508.088020833296</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="13">
         <v>42508.102303240703</v>
       </c>
-      <c r="F140" s="22">
+      <c r="F140" s="16">
         <v>1.4282407407407409E-2</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="17">
+      <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="12">
         <v>42509</v>
       </c>
-      <c r="C141" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="19">
+      <c r="C141" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="13">
         <v>42509.063229166699</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141" s="13">
         <v>42509.095625000002</v>
       </c>
-      <c r="F141" s="22">
+      <c r="F141" s="16">
         <v>3.2395833333333332E-2</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="17">
+      <c r="A142" s="11">
         <v>141</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="12">
         <v>42510</v>
       </c>
-      <c r="C142" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D142" s="19">
+      <c r="C142" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="13">
         <v>42510.105081018497</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="13">
         <v>42510.120821759301</v>
       </c>
-      <c r="F142" s="22">
+      <c r="F142" s="16">
         <v>1.5740740740740743E-2</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="17">
+      <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="12">
         <v>42511</v>
       </c>
-      <c r="C143" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D143" s="19">
+      <c r="C143" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="13">
         <v>42511.0929861111</v>
       </c>
-      <c r="E143" s="19">
+      <c r="E143" s="13">
         <v>42511.127060185201</v>
       </c>
-      <c r="F143" s="22">
+      <c r="F143" s="16">
         <v>3.4074074074074076E-2</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="17">
+      <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B144" s="18">
+      <c r="B144" s="12">
         <v>42512</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="19">
+      <c r="C144" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="13">
         <v>42512.0832407407</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="13">
         <v>42512.0854398148</v>
       </c>
-      <c r="F144" s="22">
+      <c r="F144" s="16">
         <v>2.1990740740740742E-3</v>
       </c>
-      <c r="G144" s="17" t="s">
+      <c r="G144" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="17">
+      <c r="A145" s="11">
         <v>144</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145" s="12">
         <v>42513</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D145" s="19">
+      <c r="C145" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="13">
         <v>42513.088078703702</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="13">
         <v>42513.088136574101</v>
       </c>
-      <c r="F145" s="22">
+      <c r="F145" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G145" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="17">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="12">
         <v>42514</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D146" s="19">
+      <c r="C146" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="13">
         <v>42514.090914351902</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="13">
         <v>42514.1087037037</v>
       </c>
-      <c r="F146" s="22">
+      <c r="F146" s="16">
         <v>1.7789351851851851E-2</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="17">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="12">
         <v>42515</v>
       </c>
-      <c r="C147" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D147" s="19">
+      <c r="C147" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="13">
         <v>42515.068124999998</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147" s="13">
         <v>42515.082395833299</v>
       </c>
-      <c r="F147" s="22">
+      <c r="F147" s="16">
         <v>1.4270833333333335E-2</v>
       </c>
-      <c r="G147" s="17" t="s">
+      <c r="G147" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="17">
+      <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="12">
         <v>42516</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D148" s="19">
+      <c r="C148" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="13">
         <v>42516.056886574101</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="13">
         <v>42516.065949074102</v>
       </c>
-      <c r="F148" s="22">
+      <c r="F148" s="16">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G148" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="17">
+      <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="12">
         <v>42517</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D149" s="19">
+      <c r="C149" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="13">
         <v>42517.0562152778</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149" s="13">
         <v>42517.079710648097</v>
       </c>
-      <c r="F149" s="22">
+      <c r="F149" s="16">
         <v>2.3495370370370371E-2</v>
       </c>
-      <c r="G149" s="17" t="s">
+      <c r="G149" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="17">
+      <c r="A150" s="11">
         <v>149</v>
       </c>
-      <c r="B150" s="18">
+      <c r="B150" s="12">
         <v>42518</v>
       </c>
-      <c r="C150" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D150" s="19">
+      <c r="C150" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D150" s="13">
         <v>42518.064467592601</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="13">
         <v>42518.1184027778</v>
       </c>
-      <c r="F150" s="22">
+      <c r="F150" s="16">
         <v>5.393518518518519E-2</v>
       </c>
-      <c r="G150" s="17" t="s">
+      <c r="G150" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="17">
+      <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B151" s="18">
+      <c r="B151" s="12">
         <v>42519</v>
       </c>
-      <c r="C151" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D151" s="19">
+      <c r="C151" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="13">
         <v>42519.076215277797</v>
       </c>
-      <c r="E151" s="19">
+      <c r="E151" s="13">
         <v>42519.079155092601</v>
       </c>
-      <c r="F151" s="22">
+      <c r="F151" s="16">
         <v>2.9398148148148148E-3</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G151" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="17">
+      <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="12">
         <v>42520</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D152" s="19">
+      <c r="C152" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" s="13">
         <v>42520.073553240698</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="13">
         <v>42520.073611111096</v>
       </c>
-      <c r="F152" s="22">
+      <c r="F152" s="16">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="G152" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="17">
+      <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="12">
         <v>42521</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D153" s="19">
+      <c r="C153" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="13">
         <v>42521.142361111102</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E153" s="13">
         <v>42521.160057870402</v>
       </c>
-      <c r="F153" s="22">
+      <c r="F153" s="16">
         <v>1.7696759259259259E-2</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="17">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="18">
+      <c r="B154" s="12">
         <v>42522</v>
       </c>
-      <c r="C154" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D154" s="19">
+      <c r="C154" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" s="13">
         <v>42522.116180555597</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="13">
         <v>42522.146076388897</v>
       </c>
-      <c r="F154" s="22">
+      <c r="F154" s="16">
         <v>2.989583333333333E-2</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="17">
+      <c r="A155" s="11">
         <v>154</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="12">
         <v>42523</v>
       </c>
-      <c r="C155" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D155" s="19">
+      <c r="C155" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="13">
         <v>42523.096724536997</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155" s="13">
         <v>42523.121377314797</v>
       </c>
-      <c r="F155" s="22">
+      <c r="F155" s="16">
         <v>2.4652777777777777E-2</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="G155" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="17">
+      <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="12">
         <v>42524</v>
       </c>
-      <c r="C156" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D156" s="19">
+      <c r="C156" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="13">
         <v>42524.081203703703</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="13">
         <v>42524.093263888899</v>
       </c>
-      <c r="F156" s="22">
+      <c r="F156" s="16">
         <v>1.2060185185185186E-2</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="G156" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="17">
+      <c r="A157" s="11">
         <v>156</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="12">
         <v>42525</v>
       </c>
-      <c r="C157" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D157" s="19">
+      <c r="C157" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="13">
         <v>42525.068946759297</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E157" s="13">
         <v>42525.081909722197</v>
       </c>
-      <c r="F157" s="22">
+      <c r="F157" s="16">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G157" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="17">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="12">
         <v>42526</v>
       </c>
-      <c r="C158" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D158" s="19">
+      <c r="C158" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="13">
         <v>42526.065810185202</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="13">
         <v>42526.065972222197</v>
       </c>
-      <c r="F158" s="22">
+      <c r="F158" s="16">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="G158" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="17">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="12">
         <v>42527</v>
       </c>
-      <c r="C159" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D159" s="19">
+      <c r="C159" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" s="13">
         <v>42527.073564814797</v>
       </c>
-      <c r="E159" s="19">
+      <c r="E159" s="13">
         <v>42527.073645833298</v>
       </c>
-      <c r="F159" s="22">
+      <c r="F159" s="16">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="17">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="18">
+      <c r="B160" s="12">
         <v>42528</v>
       </c>
-      <c r="C160" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D160" s="19">
+      <c r="C160" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="13">
         <v>42528.073576388902</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160" s="13">
         <v>42528.090069444399</v>
       </c>
-      <c r="F160" s="22">
+      <c r="F160" s="16">
         <v>1.6493055555555556E-2</v>
       </c>
-      <c r="G160" s="17" t="s">
+      <c r="G160" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="17">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="12">
         <v>42529</v>
       </c>
-      <c r="C161" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D161" s="19">
+      <c r="C161" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="13">
         <v>42529.082777777803</v>
       </c>
-      <c r="E161" s="19">
+      <c r="E161" s="13">
         <v>42529.101643518501</v>
       </c>
-      <c r="F161" s="22">
+      <c r="F161" s="16">
         <v>1.8865740740740742E-2</v>
       </c>
-      <c r="G161" s="17" t="s">
+      <c r="G161" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="17">
+      <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="12">
         <v>42530</v>
       </c>
-      <c r="C162" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D162" s="19">
+      <c r="C162" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D162" s="13">
         <v>42530.101597222201</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E162" s="13">
         <v>42530.1584953704</v>
       </c>
-      <c r="F162" s="22">
+      <c r="F162" s="16">
         <v>5.6898148148148149E-2</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="17">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="12">
         <v>42531</v>
       </c>
-      <c r="C163" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D163" s="19">
+      <c r="C163" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="13">
         <v>42531.083136574103</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E163" s="13">
         <v>42531.083634259303</v>
       </c>
-      <c r="F163" s="22">
+      <c r="F163" s="16">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G163" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="17">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="12">
         <v>42532</v>
       </c>
-      <c r="C164" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D164" s="19">
+      <c r="C164" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="13">
         <v>42532.082430555602</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="13">
         <v>42532.082951388897</v>
       </c>
-      <c r="F164" s="22">
+      <c r="F164" s="16">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="G164" s="17" t="s">
+      <c r="G164" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="17">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="12">
         <v>42533</v>
       </c>
-      <c r="C165" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D165" s="19">
+      <c r="C165" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="13">
         <v>42533.073275463001</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="13">
         <v>42533.073425925897</v>
       </c>
-      <c r="F165" s="22">
+      <c r="F165" s="16">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="G165" s="17" t="s">
+      <c r="G165" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="17">
+      <c r="A166" s="11">
         <v>165</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="12">
         <v>42534</v>
       </c>
-      <c r="C166" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D166" s="19">
+      <c r="C166" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="13">
         <v>42534.0920833333</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="13">
         <v>42534.100104166697</v>
       </c>
-      <c r="F166" s="22">
+      <c r="F166" s="16">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G166" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="17">
+      <c r="A167" s="11">
         <v>166</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="12">
         <v>42535</v>
       </c>
-      <c r="C167" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D167" s="19">
+      <c r="C167" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="13">
         <v>42535.068599537</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167" s="13">
         <v>42535.087766203702</v>
       </c>
-      <c r="F167" s="22">
+      <c r="F167" s="16">
         <v>1.9166666666666669E-2</v>
       </c>
-      <c r="G167" s="17" t="s">
+      <c r="G167" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="17">
+      <c r="A168" s="11">
         <v>167</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="12">
         <v>42536</v>
       </c>
-      <c r="C168" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D168" s="19">
+      <c r="C168" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="13">
         <v>42536.073402777802</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168" s="13">
         <v>42536.083495370403</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="16">
         <v>1.0092592592592592E-2</v>
       </c>
-      <c r="G168" s="17" t="s">
+      <c r="G168" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="17">
+      <c r="A169" s="11">
         <v>168</v>
       </c>
-      <c r="B169" s="18">
+      <c r="B169" s="12">
         <v>42537</v>
       </c>
-      <c r="C169" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D169" s="19">
+      <c r="C169" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="13">
         <v>42537.0915046296</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169" s="13">
         <v>42537.100219907399</v>
       </c>
-      <c r="F169" s="22">
+      <c r="F169" s="16">
         <v>8.7152777777777784E-3</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G169" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="17">
+      <c r="A170" s="11">
         <v>169</v>
       </c>
-      <c r="B170" s="18">
+      <c r="B170" s="12">
         <v>42538</v>
       </c>
-      <c r="C170" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D170" s="19">
+      <c r="C170" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="13">
         <v>42538.071238425902</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="13">
         <v>42538.138981481497</v>
       </c>
-      <c r="F170" s="22">
+      <c r="F170" s="16">
         <v>6.7743055555555556E-2</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="17">
+      <c r="A171" s="11">
         <v>170</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="12">
         <v>42539</v>
       </c>
-      <c r="C171" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D171" s="19">
+      <c r="C171" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="13">
         <v>42539.070509259298</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171" s="13">
         <v>42539.121597222198</v>
       </c>
-      <c r="F171" s="22">
+      <c r="F171" s="16">
         <v>5.1087962962962967E-2</v>
       </c>
-      <c r="G171" s="17" t="s">
+      <c r="G171" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="17">
+      <c r="A172" s="11">
         <v>171</v>
       </c>
-      <c r="B172" s="18">
+      <c r="B172" s="12">
         <v>42540</v>
       </c>
-      <c r="C172" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D172" s="19">
+      <c r="C172" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="13">
         <v>42540.080474536997</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172" s="13">
         <v>42540.080648148098</v>
       </c>
-      <c r="F172" s="22">
+      <c r="F172" s="16">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="G172" s="17" t="s">
+      <c r="G172" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="17">
+      <c r="A173" s="11">
         <v>172</v>
       </c>
-      <c r="B173" s="18">
+      <c r="B173" s="12">
         <v>42541</v>
       </c>
-      <c r="C173" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D173" s="19">
+      <c r="C173" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="13">
         <v>42541.065833333298</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173" s="13">
         <v>42541.065925925897</v>
       </c>
-      <c r="F173" s="22">
+      <c r="F173" s="16">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="G173" s="17" t="s">
+      <c r="G173" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="17">
+      <c r="A174" s="11">
         <v>173</v>
       </c>
-      <c r="B174" s="18">
+      <c r="B174" s="12">
         <v>42542</v>
       </c>
-      <c r="C174" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D174" s="19">
+      <c r="C174" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="13">
         <v>42542.091180555602</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="13">
         <v>42542.100312499999</v>
       </c>
-      <c r="F174" s="22">
+      <c r="F174" s="16">
         <v>9.1319444444444443E-3</v>
       </c>
-      <c r="G174" s="17" t="s">
+      <c r="G174" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="17">
+      <c r="A175" s="11">
         <v>174</v>
       </c>
-      <c r="B175" s="18">
+      <c r="B175" s="12">
         <v>42543</v>
       </c>
-      <c r="C175" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D175" s="19">
+      <c r="C175" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="13">
         <v>42543.075509259303</v>
       </c>
-      <c r="E175" s="19">
+      <c r="E175" s="13">
         <v>42543.094270833302</v>
       </c>
-      <c r="F175" s="22">
+      <c r="F175" s="16">
         <v>1.8761574074074073E-2</v>
       </c>
-      <c r="G175" s="17" t="s">
+      <c r="G175" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="17">
+      <c r="A176" s="11">
         <v>175</v>
       </c>
-      <c r="B176" s="18">
+      <c r="B176" s="12">
         <v>42544</v>
       </c>
-      <c r="C176" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D176" s="19">
+      <c r="C176" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="13">
         <v>42544.060439814799</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176" s="13">
         <v>42544.128425925897</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="16">
         <v>6.7986111111111108E-2</v>
       </c>
-      <c r="G176" s="17" t="s">
+      <c r="G176" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="17">
+      <c r="A177" s="11">
         <v>176</v>
       </c>
-      <c r="B177" s="18">
+      <c r="B177" s="12">
         <v>42545</v>
       </c>
-      <c r="C177" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D177" s="19">
+      <c r="C177" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="13">
         <v>42545.088576388902</v>
       </c>
-      <c r="E177" s="19">
+      <c r="E177" s="13">
         <v>42545.101145833301</v>
       </c>
-      <c r="F177" s="22">
+      <c r="F177" s="16">
         <v>1.2569444444444446E-2</v>
       </c>
-      <c r="G177" s="17" t="s">
+      <c r="G177" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="17">
+      <c r="A178" s="11">
         <v>177</v>
       </c>
-      <c r="B178" s="18">
+      <c r="B178" s="12">
         <v>42546</v>
       </c>
-      <c r="C178" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D178" s="19">
+      <c r="C178" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="13">
         <v>42546.076712962997</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178" s="13">
         <v>42546.085949074099</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="16">
         <v>9.2361111111111116E-3</v>
       </c>
-      <c r="G178" s="17" t="s">
+      <c r="G178" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="17">
+      <c r="A179" s="11">
         <v>178</v>
       </c>
-      <c r="B179" s="18">
+      <c r="B179" s="12">
         <v>42547</v>
       </c>
-      <c r="C179" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D179" s="19">
+      <c r="C179" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="13">
         <v>42547.109571759298</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179" s="13">
         <v>42547.1105439815</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="16">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="G179" s="17" t="s">
+      <c r="G179" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="17">
+      <c r="A180" s="11">
         <v>179</v>
       </c>
-      <c r="B180" s="18">
+      <c r="B180" s="12">
         <v>42548</v>
       </c>
-      <c r="C180" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D180" s="19">
+      <c r="C180" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" s="13">
         <v>42548.097245370402</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="13">
         <v>42548.097384259301</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="16">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="G180" s="17" t="s">
+      <c r="G180" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="17">
+      <c r="A181" s="11">
         <v>180</v>
       </c>
-      <c r="B181" s="18">
+      <c r="B181" s="12">
         <v>42549</v>
       </c>
-      <c r="C181" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D181" s="19">
+      <c r="C181" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="13">
         <v>42549.151666666701</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181" s="13">
         <v>42549.157905092601</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="16">
         <v>6.238425925925925E-3</v>
       </c>
-      <c r="G181" s="17" t="s">
+      <c r="G181" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="17">
+      <c r="A182" s="11">
         <v>181</v>
       </c>
-      <c r="B182" s="18">
+      <c r="B182" s="12">
         <v>42550</v>
       </c>
-      <c r="C182" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D182" s="19">
+      <c r="C182" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" s="13">
         <v>42550.113680555602</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="13">
         <v>42550.124652777798</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="16">
         <v>1.0972222222222223E-2</v>
       </c>
-      <c r="G182" s="17" t="s">
+      <c r="G182" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="17">
+      <c r="A183" s="11">
         <v>182</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="12">
         <v>42551</v>
       </c>
-      <c r="C183" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D183" s="19">
+      <c r="C183" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="13">
         <v>42551.152916666702</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183" s="13">
         <v>42551.163784722201</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="16">
         <v>1.0868055555555556E-2</v>
       </c>
-      <c r="G183" s="17" t="s">
+      <c r="G183" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="17">
+      <c r="A184" s="11">
         <v>183</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="12">
         <v>42552</v>
       </c>
-      <c r="C184" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D184" s="19">
+      <c r="C184" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="13">
         <v>42552.147824074098</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184" s="13">
         <v>42552.182916666701</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="16">
         <v>3.5092592592592592E-2</v>
       </c>
-      <c r="G184" s="17" t="s">
+      <c r="G184" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="17">
+      <c r="A185" s="11">
         <v>184</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="12">
         <v>42553</v>
       </c>
-      <c r="C185" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185" s="19">
+      <c r="C185" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="13">
         <v>42553.102442129602</v>
       </c>
-      <c r="E185" s="19">
+      <c r="E185" s="13">
         <v>42553.121307870402</v>
       </c>
-      <c r="F185" s="22">
+      <c r="F185" s="16">
         <v>1.8865740740740742E-2</v>
       </c>
-      <c r="G185" s="17" t="s">
+      <c r="G185" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="17">
+      <c r="A186" s="11">
         <v>185</v>
       </c>
-      <c r="B186" s="18">
+      <c r="B186" s="12">
         <v>42554</v>
       </c>
-      <c r="C186" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" s="19">
+      <c r="C186" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="13">
         <v>42554.081087963001</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186" s="13">
         <v>42554.081226851798</v>
       </c>
-      <c r="F186" s="22">
+      <c r="F186" s="16">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="G186" s="17" t="s">
+      <c r="G186" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="17">
+      <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="18">
+      <c r="B187" s="12">
         <v>42555</v>
       </c>
-      <c r="C187" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D187" s="19">
+      <c r="C187" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="13">
         <v>42555.0910069444</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187" s="13">
         <v>42555.091134259303</v>
       </c>
-      <c r="F187" s="22">
+      <c r="F187" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G187" s="17" t="s">
+      <c r="G187" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="17">
+      <c r="A188" s="11">
         <v>187</v>
       </c>
-      <c r="B188" s="18">
+      <c r="B188" s="12">
         <v>42556</v>
       </c>
-      <c r="C188" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D188" s="19">
+      <c r="C188" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" s="13">
         <v>42556.092604166697</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188" s="13">
         <v>42556.101793981499</v>
       </c>
-      <c r="F188" s="22">
+      <c r="F188" s="16">
         <v>9.1898148148148139E-3</v>
       </c>
-      <c r="G188" s="17" t="s">
+      <c r="G188" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="17">
+      <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="18">
+      <c r="B189" s="12">
         <v>42557</v>
       </c>
-      <c r="C189" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D189" s="19">
+      <c r="C189" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="13">
         <v>42557.079490740703</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189" s="13">
         <v>42557.092118055603</v>
       </c>
-      <c r="F189" s="22">
+      <c r="F189" s="16">
         <v>1.2627314814814815E-2</v>
       </c>
-      <c r="G189" s="17" t="s">
+      <c r="G189" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="17">
+      <c r="A190" s="11">
         <v>189</v>
       </c>
-      <c r="B190" s="18">
+      <c r="B190" s="12">
         <v>42558</v>
       </c>
-      <c r="C190" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D190" s="19">
+      <c r="C190" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="13">
         <v>42558.097962963002</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190" s="13">
         <v>42558.107916666697</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="16">
         <v>9.9537037037037042E-3</v>
       </c>
-      <c r="G190" s="17" t="s">
+      <c r="G190" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="17">
+      <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="18">
+      <c r="B191" s="12">
         <v>42559</v>
       </c>
-      <c r="C191" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D191" s="19">
+      <c r="C191" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="13">
         <v>42559.078854166699</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E191" s="13">
         <v>42559.0946064815</v>
       </c>
-      <c r="F191" s="22">
+      <c r="F191" s="16">
         <v>1.5752314814814813E-2</v>
       </c>
-      <c r="G191" s="17" t="s">
+      <c r="G191" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="17">
+      <c r="A192" s="11">
         <v>191</v>
       </c>
-      <c r="B192" s="18">
+      <c r="B192" s="12">
         <v>42560</v>
       </c>
-      <c r="C192" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D192" s="19">
+      <c r="C192" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" s="13">
         <v>42560.0828819444</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="13">
         <v>42560.101446759298</v>
       </c>
-      <c r="F192" s="22">
+      <c r="F192" s="16">
         <v>1.8564814814814815E-2</v>
       </c>
-      <c r="G192" s="17" t="s">
+      <c r="G192" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="17">
+      <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="18">
+      <c r="B193" s="12">
         <v>42561</v>
       </c>
-      <c r="C193" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D193" s="19">
+      <c r="C193" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" s="13">
         <v>42561.083356481497</v>
       </c>
-      <c r="E193" s="19">
+      <c r="E193" s="13">
         <v>42561.083541666703</v>
       </c>
-      <c r="F193" s="22">
+      <c r="F193" s="16">
         <v>1.8518518518518518E-4</v>
       </c>
-      <c r="G193" s="17" t="s">
+      <c r="G193" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="17">
+      <c r="A194" s="11">
         <v>193</v>
       </c>
-      <c r="B194" s="18">
+      <c r="B194" s="12">
         <v>42562</v>
       </c>
-      <c r="C194" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D194" s="19">
+      <c r="C194" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" s="13">
         <v>42562.078206018501</v>
       </c>
-      <c r="E194" s="19">
+      <c r="E194" s="13">
         <v>42562.078275462998</v>
       </c>
-      <c r="F194" s="22">
+      <c r="F194" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G194" s="17" t="s">
+      <c r="G194" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="17">
+      <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="18">
+      <c r="B195" s="12">
         <v>42563</v>
       </c>
-      <c r="C195" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D195" s="19">
+      <c r="C195" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D195" s="13">
         <v>42563.083124999997</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="13">
         <v>42563.098831018498</v>
       </c>
-      <c r="F195" s="22">
+      <c r="F195" s="16">
         <v>1.5706018518518518E-2</v>
       </c>
-      <c r="G195" s="17" t="s">
+      <c r="G195" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="17">
+      <c r="A196" s="11">
         <v>195</v>
       </c>
-      <c r="B196" s="18">
+      <c r="B196" s="12">
         <v>42564</v>
       </c>
-      <c r="C196" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D196" s="19">
+      <c r="C196" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196" s="13">
         <v>42564.073657407404</v>
       </c>
-      <c r="E196" s="19">
+      <c r="E196" s="13">
         <v>42564.082268518498</v>
       </c>
-      <c r="F196" s="22">
+      <c r="F196" s="16">
         <v>8.611111111111111E-3</v>
       </c>
-      <c r="G196" s="17" t="s">
+      <c r="G196" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="17">
+      <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="18">
+      <c r="B197" s="12">
         <v>42565</v>
       </c>
-      <c r="C197" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D197" s="19">
+      <c r="C197" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="13">
         <v>42565.0719791667</v>
       </c>
-      <c r="E197" s="19">
+      <c r="E197" s="13">
         <v>42565.084166666697</v>
       </c>
-      <c r="F197" s="22">
+      <c r="F197" s="16">
         <v>1.2187500000000002E-2</v>
       </c>
-      <c r="G197" s="17" t="s">
+      <c r="G197" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="17">
+      <c r="A198" s="11">
         <v>197</v>
       </c>
-      <c r="B198" s="18">
+      <c r="B198" s="12">
         <v>42566</v>
       </c>
-      <c r="C198" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D198" s="19">
+      <c r="C198" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D198" s="13">
         <v>42566.0786689815</v>
       </c>
-      <c r="E198" s="19">
+      <c r="E198" s="13">
         <v>42566.096828703703</v>
       </c>
-      <c r="F198" s="22">
+      <c r="F198" s="16">
         <v>1.8159722222222219E-2</v>
       </c>
-      <c r="G198" s="17" t="s">
+      <c r="G198" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="17">
+      <c r="A199" s="11">
         <v>198</v>
       </c>
-      <c r="B199" s="18">
+      <c r="B199" s="12">
         <v>42567</v>
       </c>
-      <c r="C199" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D199" s="19">
+      <c r="C199" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" s="13">
         <v>42567.066493055601</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E199" s="13">
         <v>42567.078993055598</v>
       </c>
-      <c r="F199" s="22">
+      <c r="F199" s="16">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="G199" s="17" t="s">
+      <c r="G199" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="17">
+      <c r="A200" s="11">
         <v>199</v>
       </c>
-      <c r="B200" s="18">
+      <c r="B200" s="12">
         <v>42568</v>
       </c>
-      <c r="C200" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D200" s="19">
+      <c r="C200" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D200" s="13">
         <v>42568.062986111101</v>
       </c>
-      <c r="E200" s="19">
+      <c r="E200" s="13">
         <v>42568.063055555598</v>
       </c>
-      <c r="F200" s="22">
+      <c r="F200" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G200" s="17" t="s">
+      <c r="G200" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="17">
+      <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="18">
+      <c r="B201" s="12">
         <v>42569</v>
       </c>
-      <c r="C201" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D201" s="19">
+      <c r="C201" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" s="13">
         <v>42569.076678240701</v>
       </c>
-      <c r="E201" s="19">
+      <c r="E201" s="13">
         <v>42569.076747685198</v>
       </c>
-      <c r="F201" s="22">
+      <c r="F201" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G201" s="17" t="s">
+      <c r="G201" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="17">
+      <c r="A202" s="11">
         <v>201</v>
       </c>
-      <c r="B202" s="18">
+      <c r="B202" s="12">
         <v>42570</v>
       </c>
-      <c r="C202" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D202" s="19">
+      <c r="C202" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D202" s="13">
         <v>42570.088298611103</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="13">
         <v>42570.097002314797</v>
       </c>
-      <c r="F202" s="22">
+      <c r="F202" s="16">
         <v>8.7037037037037031E-3</v>
       </c>
-      <c r="G202" s="17" t="s">
+      <c r="G202" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="17">
+      <c r="A203" s="11">
         <v>202</v>
       </c>
-      <c r="B203" s="18">
+      <c r="B203" s="12">
         <v>42571</v>
       </c>
-      <c r="C203" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D203" s="19">
+      <c r="C203" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D203" s="13">
         <v>42571.073993055601</v>
       </c>
-      <c r="E203" s="19">
+      <c r="E203" s="13">
         <v>42571.085185185198</v>
       </c>
-      <c r="F203" s="22">
+      <c r="F203" s="16">
         <v>1.119212962962963E-2</v>
       </c>
-      <c r="G203" s="17" t="s">
+      <c r="G203" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="17">
+      <c r="A204" s="11">
         <v>203</v>
       </c>
-      <c r="B204" s="18">
+      <c r="B204" s="12">
         <v>42572</v>
       </c>
-      <c r="C204" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D204" s="19">
+      <c r="C204" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204" s="13">
         <v>42572.070682870399</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="13">
         <v>42572.087835648097</v>
       </c>
-      <c r="F204" s="22">
+      <c r="F204" s="16">
         <v>1.7152777777777777E-2</v>
       </c>
-      <c r="G204" s="17" t="s">
+      <c r="G204" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="17">
+      <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="18">
+      <c r="B205" s="12">
         <v>42573</v>
       </c>
-      <c r="C205" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D205" s="19">
+      <c r="C205" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205" s="13">
         <v>42573.221099536997</v>
       </c>
-      <c r="E205" s="19">
+      <c r="E205" s="13">
         <v>42573.236469907402</v>
       </c>
-      <c r="F205" s="22">
+      <c r="F205" s="16">
         <v>1.5370370370370369E-2</v>
       </c>
-      <c r="G205" s="17" t="s">
+      <c r="G205" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="17">
+      <c r="A206" s="11">
         <v>205</v>
       </c>
-      <c r="B206" s="18">
+      <c r="B206" s="12">
         <v>42574</v>
       </c>
-      <c r="C206" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D206" s="19">
+      <c r="C206" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" s="13">
         <v>42574.082789351902</v>
       </c>
-      <c r="E206" s="19">
+      <c r="E206" s="13">
         <v>42574.095115740703</v>
       </c>
-      <c r="F206" s="22">
+      <c r="F206" s="16">
         <v>1.2326388888888888E-2</v>
       </c>
-      <c r="G206" s="17" t="s">
+      <c r="G206" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="17">
+      <c r="A207" s="11">
         <v>206</v>
       </c>
-      <c r="B207" s="18">
+      <c r="B207" s="12">
         <v>42575</v>
       </c>
-      <c r="C207" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D207" s="19">
+      <c r="C207" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" s="13">
         <v>42575.102048611101</v>
       </c>
-      <c r="E207" s="19">
+      <c r="E207" s="13">
         <v>42575.102175925902</v>
       </c>
-      <c r="F207" s="22">
+      <c r="F207" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G207" s="17" t="s">
+      <c r="G207" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="17">
+      <c r="A208" s="11">
         <v>207</v>
       </c>
-      <c r="B208" s="18">
+      <c r="B208" s="12">
         <v>42576</v>
       </c>
-      <c r="C208" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D208" s="19">
+      <c r="C208" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D208" s="13">
         <v>42576.089872685203</v>
       </c>
-      <c r="E208" s="19">
+      <c r="E208" s="13">
         <v>42576.089918981503</v>
       </c>
-      <c r="F208" s="22">
+      <c r="F208" s="16">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G208" s="17" t="s">
+      <c r="G208" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="17">
+      <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="18">
+      <c r="B209" s="12">
         <v>42577</v>
       </c>
-      <c r="C209" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D209" s="19">
+      <c r="C209" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D209" s="13">
         <v>42577.085046296299</v>
       </c>
-      <c r="E209" s="19">
+      <c r="E209" s="13">
         <v>42577.103333333303</v>
       </c>
-      <c r="F209" s="22">
+      <c r="F209" s="16">
         <v>1.8287037037037036E-2</v>
       </c>
-      <c r="G209" s="17" t="s">
+      <c r="G209" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="17">
+      <c r="A210" s="11">
         <v>209</v>
       </c>
-      <c r="B210" s="18">
+      <c r="B210" s="12">
         <v>42578</v>
       </c>
-      <c r="C210" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D210" s="19">
+      <c r="C210" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D210" s="13">
         <v>42578.138217592597</v>
       </c>
-      <c r="E210" s="19">
+      <c r="E210" s="13">
         <v>42578.152557870402</v>
       </c>
-      <c r="F210" s="22">
+      <c r="F210" s="16">
         <v>1.4340277777777776E-2</v>
       </c>
-      <c r="G210" s="17" t="s">
+      <c r="G210" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="17">
+      <c r="A211" s="11">
         <v>210</v>
       </c>
-      <c r="B211" s="18">
+      <c r="B211" s="12">
         <v>42579</v>
       </c>
-      <c r="C211" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D211" s="19">
+      <c r="C211" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" s="13">
         <v>42579.093553240702</v>
       </c>
-      <c r="E211" s="19">
+      <c r="E211" s="13">
         <v>42579.133923611102</v>
       </c>
-      <c r="F211" s="22">
+      <c r="F211" s="16">
         <v>4.0370370370370369E-2</v>
       </c>
-      <c r="G211" s="17" t="s">
+      <c r="G211" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="17">
+      <c r="A212" s="11">
         <v>211</v>
       </c>
-      <c r="B212" s="18">
+      <c r="B212" s="12">
         <v>42580</v>
       </c>
-      <c r="C212" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D212" s="19">
+      <c r="C212" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D212" s="13">
         <v>42580.082581018498</v>
       </c>
-      <c r="E212" s="19">
+      <c r="E212" s="13">
         <v>42580.110127314802</v>
       </c>
-      <c r="F212" s="22">
+      <c r="F212" s="16">
         <v>2.7546296296296294E-2</v>
       </c>
-      <c r="G212" s="17" t="s">
+      <c r="G212" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="17">
+      <c r="A213" s="11">
         <v>212</v>
       </c>
-      <c r="B213" s="18">
+      <c r="B213" s="12">
         <v>42581</v>
       </c>
-      <c r="C213" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D213" s="19">
+      <c r="C213" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" s="13">
         <v>42581.103298611102</v>
       </c>
-      <c r="E213" s="19">
+      <c r="E213" s="13">
         <v>42581.192939814799</v>
       </c>
-      <c r="F213" s="22">
+      <c r="F213" s="16">
         <v>8.9641203703703709E-2</v>
       </c>
-      <c r="G213" s="17" t="s">
+      <c r="G213" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="17">
+      <c r="A214" s="11">
         <v>213</v>
       </c>
-      <c r="B214" s="18">
+      <c r="B214" s="12">
         <v>42582</v>
       </c>
-      <c r="C214" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D214" s="19">
+      <c r="C214" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D214" s="13">
         <v>42582.111331018503</v>
       </c>
-      <c r="E214" s="19">
+      <c r="E214" s="13">
         <v>42582.111458333296</v>
       </c>
-      <c r="F214" s="22">
+      <c r="F214" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="G214" s="17" t="s">
+      <c r="G214" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="17">
+      <c r="A215" s="11">
         <v>214</v>
       </c>
-      <c r="B215" s="18">
+      <c r="B215" s="12">
         <v>42583</v>
       </c>
-      <c r="C215" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D215" s="19">
+      <c r="C215" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D215" s="13">
         <v>42583.155925925901</v>
       </c>
-      <c r="E215" s="19">
+      <c r="E215" s="13">
         <v>42583.169907407399</v>
       </c>
-      <c r="F215" s="22">
+      <c r="F215" s="16">
         <v>1.3981481481481482E-2</v>
       </c>
-      <c r="G215" s="17" t="s">
+      <c r="G215" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="17">
+      <c r="A216" s="11">
         <v>215</v>
       </c>
-      <c r="B216" s="18">
+      <c r="B216" s="12">
         <v>42584</v>
       </c>
-      <c r="C216" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D216" s="19">
+      <c r="C216" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D216" s="13">
         <v>42584.144259259301</v>
       </c>
-      <c r="E216" s="19">
+      <c r="E216" s="13">
         <v>42584.212881944397</v>
       </c>
-      <c r="F216" s="22">
+      <c r="F216" s="16">
         <v>6.8622685185185189E-2</v>
       </c>
-      <c r="G216" s="17" t="s">
+      <c r="G216" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="17">
+      <c r="A217" s="11">
         <v>216</v>
       </c>
-      <c r="B217" s="18">
+      <c r="B217" s="12">
         <v>42585</v>
       </c>
-      <c r="C217" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D217" s="19">
+      <c r="C217" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D217" s="13">
         <v>42585.174189814803</v>
       </c>
-      <c r="E217" s="19">
+      <c r="E217" s="13">
         <v>42585.2008333333</v>
       </c>
-      <c r="F217" s="22">
+      <c r="F217" s="16">
         <v>2.6643518518518521E-2</v>
       </c>
-      <c r="G217" s="17" t="s">
+      <c r="G217" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="17">
+      <c r="A218" s="11">
         <v>217</v>
       </c>
-      <c r="B218" s="18">
+      <c r="B218" s="12">
         <v>42586</v>
       </c>
-      <c r="C218" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D218" s="19">
+      <c r="C218" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" s="13">
         <v>42586.072777777801</v>
       </c>
-      <c r="E218" s="19">
+      <c r="E218" s="13">
         <v>42586.162337962996</v>
       </c>
-      <c r="F218" s="22">
+      <c r="F218" s="16">
         <v>8.9560185185185173E-2</v>
       </c>
-      <c r="G218" s="17" t="s">
+      <c r="G218" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="17">
+      <c r="A219" s="11">
         <v>218</v>
       </c>
-      <c r="B219" s="18">
+      <c r="B219" s="12">
         <v>42587</v>
       </c>
-      <c r="C219" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D219" s="19">
+      <c r="C219" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D219" s="13">
         <v>42587.107384259303</v>
       </c>
-      <c r="E219" s="19">
+      <c r="E219" s="13">
         <v>42587.107453703698</v>
       </c>
-      <c r="F219" s="22">
+      <c r="F219" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="G219" s="17" t="s">
+      <c r="G219" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="17">
+      <c r="A220" s="11">
         <v>219</v>
       </c>
-      <c r="B220" s="18">
+      <c r="B220" s="12">
         <v>42587</v>
       </c>
-      <c r="C220" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D220" s="19">
+      <c r="C220" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D220" s="13">
         <v>42587.380601851903</v>
       </c>
-      <c r="E220" s="19">
+      <c r="E220" s="13">
         <v>42587.397280092599</v>
       </c>
-      <c r="F220" s="22">
+      <c r="F220" s="16">
         <v>1.667824074074074E-2</v>
       </c>
-      <c r="G220" s="17" t="s">
+      <c r="G220" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="17">
+      <c r="A221" s="11">
         <v>220</v>
       </c>
-      <c r="B221" s="18">
+      <c r="B221" s="12">
         <v>42588</v>
       </c>
-      <c r="C221" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D221" s="19">
+      <c r="C221" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D221" s="13">
         <v>42588.082916666703</v>
       </c>
-      <c r="E221" s="19">
+      <c r="E221" s="13">
         <v>42588.098136574103</v>
       </c>
-      <c r="F221" s="22">
+      <c r="F221" s="16">
         <v>1.5219907407407409E-2</v>
       </c>
-      <c r="G221" s="17" t="s">
+      <c r="G221" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="17">
+      <c r="A222" s="11">
         <v>221</v>
       </c>
-      <c r="B222" s="18">
+      <c r="B222" s="12">
         <v>42589</v>
       </c>
-      <c r="C222" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D222" s="19">
+      <c r="C222" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D222" s="13">
         <v>42589.097407407397</v>
       </c>
-      <c r="E222" s="19">
+      <c r="E222" s="13">
         <v>42589.097615740699</v>
       </c>
-      <c r="F222" s="22">
+      <c r="F222" s="16">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="G222" s="17" t="s">
+      <c r="G222" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="17">
+      <c r="A223" s="11">
         <v>222</v>
       </c>
-      <c r="B223" s="18">
+      <c r="B223" s="12">
         <v>42590</v>
       </c>
-      <c r="C223" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D223" s="19">
+      <c r="C223" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D223" s="13">
         <v>42590.128148148098</v>
       </c>
-      <c r="E223" s="19">
+      <c r="E223" s="13">
         <v>42590.128298611096</v>
       </c>
-      <c r="F223" s="22">
+      <c r="F223" s="16">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="G223" s="17" t="s">
+      <c r="G223" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="17">
+      <c r="A224" s="11">
         <v>223</v>
       </c>
-      <c r="B224" s="18">
+      <c r="B224" s="12">
         <v>42591</v>
       </c>
-      <c r="C224" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D224" s="19">
+      <c r="C224" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D224" s="13">
         <v>42591.103611111103</v>
       </c>
-      <c r="E224" s="19">
+      <c r="E224" s="13">
         <v>42591.143692129597</v>
       </c>
-      <c r="F224" s="22">
+      <c r="F224" s="16">
         <v>4.0081018518518523E-2</v>
       </c>
-      <c r="G224" s="17" t="s">
+      <c r="G224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="17">
+      <c r="A225" s="11">
         <v>224</v>
       </c>
-      <c r="B225" s="18">
+      <c r="B225" s="12">
         <v>42592</v>
       </c>
-      <c r="C225" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D225" s="19">
+      <c r="C225" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" s="13">
         <v>42592.073634259301</v>
       </c>
-      <c r="E225" s="19">
+      <c r="E225" s="13">
         <v>42592.108055555596</v>
       </c>
-      <c r="F225" s="22">
+      <c r="F225" s="16">
         <v>3.4421296296296297E-2</v>
       </c>
-      <c r="G225" s="17" t="s">
+      <c r="G225" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="17">
+      <c r="A226" s="11">
         <v>225</v>
       </c>
-      <c r="B226" s="18">
+      <c r="B226" s="12">
         <v>42593</v>
       </c>
-      <c r="C226" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D226" s="19">
+      <c r="C226" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" s="13">
         <v>42593.063634259299</v>
       </c>
-      <c r="E226" s="19">
+      <c r="E226" s="13">
         <v>42593.0843171296</v>
       </c>
-      <c r="F226" s="22">
+      <c r="F226" s="16">
         <v>2.0682870370370372E-2</v>
       </c>
-      <c r="G226" s="17" t="s">
+      <c r="G226" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="17">
+      <c r="A227" s="11">
         <v>226</v>
       </c>
-      <c r="B227" s="18">
+      <c r="B227" s="12">
         <v>42594</v>
       </c>
-      <c r="C227" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D227" s="19">
+      <c r="C227" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D227" s="13">
         <v>42594.0769097222</v>
       </c>
-      <c r="E227" s="19">
+      <c r="E227" s="13">
         <v>42594.145983796298</v>
       </c>
-      <c r="F227" s="22">
+      <c r="F227" s="16">
         <v>6.9074074074074079E-2</v>
       </c>
-      <c r="G227" s="17" t="s">
+      <c r="G227" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18113,7 +18465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/软维组工作汇报/表格/PPT模版.xlsx
+++ b/软维组工作汇报/表格/PPT模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="0" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="0" windowWidth="20340" windowHeight="7875"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="2160" windowHeight="5250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -346,7 +346,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -420,6 +422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -435,7 +438,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -445,7 +448,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -519,6 +524,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -534,7 +540,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2013,24 +2019,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65679744"/>
-        <c:axId val="65681280"/>
+        <c:axId val="77437952"/>
+        <c:axId val="77447936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65679744"/>
+        <c:axId val="77437952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65681280"/>
+        <c:crossAx val="77447936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65681280"/>
+        <c:axId val="77447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2044,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65679744"/>
+        <c:crossAx val="77437952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2051,7 +2057,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2061,7 +2067,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2137,12 +2145,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2152,7 +2161,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2200,10 +2211,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,12 +2227,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2231,9 +2243,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3628,24 +3638,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65915520"/>
-        <c:axId val="65798528"/>
+        <c:axId val="78165504"/>
+        <c:axId val="78167040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65915520"/>
+        <c:axId val="78165504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/m\/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65798528"/>
+        <c:crossAx val="78167040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65798528"/>
+        <c:axId val="78167040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,20 +3663,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65915520"/>
+        <c:crossAx val="78165504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4159,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G215" sqref="G215:G237"/>
     </sheetView>
@@ -12606,7 +12615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -12635,7 +12644,7 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12649,7 +12658,7 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
@@ -13124,91 +13133,91 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
